--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6400" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -678,10 +690,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -725,28 +737,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -771,28 +783,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -880,10 +892,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -927,28 +939,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -973,28 +985,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1053,10 +1065,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1100,28 +1112,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1146,28 +1158,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1226,10 +1238,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1273,28 +1285,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1319,28 +1331,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1399,10 +1411,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1446,28 +1458,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1492,28 +1504,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1601,10 +1613,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1648,28 +1660,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1694,28 +1706,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1774,10 +1786,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1821,28 +1833,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1867,28 +1879,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1947,10 +1959,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1994,28 +2006,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2040,28 +2052,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2120,10 +2132,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2167,28 +2179,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2213,28 +2225,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2293,10 +2305,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2340,28 +2352,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2386,28 +2398,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2466,10 +2478,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2513,28 +2525,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2559,28 +2571,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2639,10 +2651,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2686,28 +2698,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2732,28 +2744,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2812,10 +2824,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2859,28 +2871,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2905,28 +2917,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2985,10 +2997,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3032,28 +3044,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3078,28 +3090,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3158,10 +3170,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3205,28 +3217,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3251,28 +3263,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3331,10 +3343,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3378,28 +3390,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3424,28 +3436,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3504,10 +3516,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3551,28 +3563,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3597,28 +3609,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3706,10 +3718,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3753,28 +3765,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3799,28 +3811,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3879,10 +3891,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3926,28 +3938,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3972,28 +3984,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4052,10 +4064,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4099,28 +4111,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4145,28 +4157,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4225,10 +4237,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4272,28 +4284,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4318,28 +4330,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4398,10 +4410,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4445,28 +4457,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4491,28 +4503,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4571,10 +4583,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4618,28 +4630,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4664,28 +4676,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4744,10 +4756,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4791,28 +4803,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4837,28 +4849,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4917,10 +4929,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4964,28 +4976,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5010,28 +5022,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5090,10 +5102,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5137,28 +5149,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5183,28 +5195,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5292,10 +5304,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5339,28 +5351,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5385,28 +5397,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5494,10 +5506,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5541,28 +5553,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5587,28 +5599,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5667,10 +5679,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5714,28 +5726,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5760,28 +5772,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5840,10 +5852,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5887,28 +5899,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5933,28 +5945,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6042,10 +6054,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6089,28 +6101,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6135,28 +6147,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6215,10 +6227,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6262,28 +6274,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6308,28 +6320,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6388,10 +6400,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6435,28 +6447,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6481,28 +6493,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6561,10 +6573,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6608,28 +6620,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6654,28 +6666,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6763,10 +6775,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6810,28 +6822,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6856,28 +6868,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6936,10 +6948,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6983,28 +6995,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7029,28 +7041,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7109,10 +7121,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7156,28 +7168,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7202,28 +7214,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7282,10 +7294,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7329,28 +7341,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7375,28 +7387,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7455,10 +7467,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7502,28 +7514,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7548,28 +7560,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7628,10 +7640,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7675,28 +7687,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7721,28 +7733,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7830,10 +7842,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7877,28 +7889,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7923,28 +7935,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8032,10 +8044,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8079,28 +8091,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8125,28 +8137,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8205,10 +8217,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8252,28 +8264,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8298,28 +8310,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8378,10 +8390,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8425,28 +8437,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8471,28 +8483,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8551,10 +8563,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8598,28 +8610,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8644,28 +8656,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8724,10 +8736,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8771,28 +8783,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8817,28 +8829,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8897,10 +8909,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8944,28 +8956,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8990,28 +9002,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9070,10 +9082,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9117,28 +9129,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9163,28 +9175,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9243,10 +9255,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9290,28 +9302,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9336,28 +9348,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9416,10 +9428,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9463,28 +9475,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9509,28 +9521,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9589,10 +9601,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9636,28 +9648,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9682,28 +9694,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9762,10 +9774,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9809,28 +9821,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9855,28 +9867,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9935,10 +9947,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9982,28 +9994,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10028,28 +10040,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10108,10 +10120,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10155,28 +10167,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10201,28 +10213,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10281,10 +10293,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="2" t="s">
+      <c r="J352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10328,28 +10340,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="2">
+      <c r="A354" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="2">
+      <c r="C354" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10374,28 +10386,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="2">
+      <c r="C356" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="2">
+      <c r="D356" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="2">
+      <c r="I356" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10454,10 +10466,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10501,28 +10513,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10547,28 +10559,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10627,10 +10639,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="2" t="s">
+      <c r="J364" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10674,28 +10686,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="2">
+      <c r="A366" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="2">
+      <c r="C366" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10720,28 +10732,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="2">
+      <c r="C368" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="2">
+      <c r="D368" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="2">
+      <c r="I368" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10800,10 +10812,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="2" t="s">
+      <c r="J370" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10847,28 +10859,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="2">
+      <c r="A372" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="2">
+      <c r="C372" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10893,28 +10905,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="2">
+      <c r="B374" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="2">
+      <c r="C374" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="2">
+      <c r="D374" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="2">
+      <c r="E374" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="2">
+      <c r="F374" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="2">
+      <c r="G374" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="2">
+      <c r="H374" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="2">
+      <c r="I374" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10973,10 +10985,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="2" t="s">
+      <c r="J376" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11020,28 +11032,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="2">
+      <c r="A378" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="2">
+      <c r="C378" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11066,28 +11078,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="2">
+      <c r="B380" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="2">
+      <c r="C380" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="2">
+      <c r="D380" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="2">
+      <c r="E380" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="2">
+      <c r="F380" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="2">
+      <c r="G380" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="2">
+      <c r="H380" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="2">
+      <c r="I380" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11146,10 +11158,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="2" t="s">
+      <c r="J382" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11193,28 +11205,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="2">
+      <c r="A384" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="2">
+      <c r="C384" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11239,28 +11251,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="2">
+      <c r="B386" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="2">
+      <c r="C386" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="2">
+      <c r="D386" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="2">
+      <c r="E386" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="2">
+      <c r="F386" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="2">
+      <c r="G386" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="2">
+      <c r="H386" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="2">
+      <c r="I386" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11319,10 +11331,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="2" t="s">
+      <c r="J388" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11366,28 +11378,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="2">
+      <c r="A390" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="2">
+      <c r="C390" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11412,28 +11424,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="2">
+      <c r="C392" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="2">
+      <c r="D392" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="2">
+      <c r="I392" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11492,10 +11504,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11539,28 +11551,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11585,28 +11597,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11665,10 +11677,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="2" t="s">
+      <c r="J400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11712,28 +11724,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="2">
+      <c r="A402" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="2">
+      <c r="C402" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11758,28 +11770,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="2">
+      <c r="C404" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="2">
+      <c r="D404" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="2">
+      <c r="I404" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11838,10 +11850,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11885,28 +11897,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="2">
+      <c r="A408" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="2">
+      <c r="C408" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11931,28 +11943,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="2">
+      <c r="B410" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="2">
+      <c r="C410" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="2">
+      <c r="D410" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="2">
+      <c r="E410" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="2">
+      <c r="F410" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="2">
+      <c r="G410" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="2">
+      <c r="H410" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="2">
+      <c r="I410" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12011,10 +12023,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="2" t="s">
+      <c r="J412" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12058,28 +12070,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="2">
+      <c r="A414" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="2">
+      <c r="C414" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12104,28 +12116,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="2">
+      <c r="B416" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="2">
+      <c r="C416" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="2">
+      <c r="D416" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="2">
+      <c r="E416" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="2">
+      <c r="F416" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="2">
+      <c r="G416" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="2">
+      <c r="H416" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="2">
+      <c r="I416" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12213,10 +12225,10 @@
       <c r="I419">
         <f>((C419-C418)^2+(D419- D418)^2)^.5</f>
       </c>
-      <c r="J419" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K419" s="2" t="s">
+      <c r="J419" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K419" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L419" t="n">
@@ -12260,28 +12272,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="s" s="2">
+      <c r="A421" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B421" t="s" s="2">
+      <c r="B421" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C421" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D421" t="s" s="2">
+      <c r="C421" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E421" t="s" s="2">
+      <c r="E421" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F421" t="s" s="2">
+      <c r="F421" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G421" t="s" s="2">
+      <c r="G421" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H421" t="s" s="2">
+      <c r="H421" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12306,28 +12318,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="B423" t="s" s="2">
+      <c r="B423" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C423" t="s" s="2">
+      <c r="C423" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D423" t="s" s="2">
+      <c r="D423" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E423" t="s" s="2">
+      <c r="E423" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F423" t="s" s="2">
+      <c r="F423" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G423" t="s" s="2">
+      <c r="G423" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H423" t="s" s="2">
+      <c r="H423" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I423" t="s" s="2">
+      <c r="I423" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12386,10 +12398,10 @@
       <c r="I425">
         <f>((C425-C424)^2+(D425- D424)^2)^.5</f>
       </c>
-      <c r="J425" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K425" s="2" t="s">
+      <c r="J425" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K425" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L425" t="n">
@@ -12433,28 +12445,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s" s="2">
+      <c r="A427" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B427" t="s" s="2">
+      <c r="B427" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C427" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D427" t="s" s="2">
+      <c r="C427" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E427" t="s" s="2">
+      <c r="E427" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F427" t="s" s="2">
+      <c r="F427" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G427" t="s" s="2">
+      <c r="G427" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H427" t="s" s="2">
+      <c r="H427" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12479,28 +12491,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="B429" t="s" s="2">
+      <c r="B429" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C429" t="s" s="2">
+      <c r="C429" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D429" t="s" s="2">
+      <c r="D429" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E429" t="s" s="2">
+      <c r="E429" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F429" t="s" s="2">
+      <c r="F429" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G429" t="s" s="2">
+      <c r="G429" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H429" t="s" s="2">
+      <c r="H429" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I429" t="s" s="2">
+      <c r="I429" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12559,10 +12571,10 @@
       <c r="I431">
         <f>((C431-C430)^2+(D431- D430)^2)^.5</f>
       </c>
-      <c r="J431" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K431" s="2" t="s">
+      <c r="J431" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K431" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L431" t="n">
@@ -12606,28 +12618,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="s" s="2">
+      <c r="A433" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B433" t="s" s="2">
+      <c r="B433" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C433" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D433" t="s" s="2">
+      <c r="C433" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D433" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E433" t="s" s="2">
+      <c r="E433" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F433" t="s" s="2">
+      <c r="F433" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G433" t="s" s="2">
+      <c r="G433" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H433" t="s" s="2">
+      <c r="H433" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12652,28 +12664,28 @@
       </c>
     </row>
     <row r="435">
-      <c r="B435" t="s" s="2">
+      <c r="B435" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C435" t="s" s="2">
+      <c r="C435" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D435" t="s" s="2">
+      <c r="D435" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E435" t="s" s="2">
+      <c r="E435" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F435" t="s" s="2">
+      <c r="F435" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G435" t="s" s="2">
+      <c r="G435" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H435" t="s" s="2">
+      <c r="H435" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I435" t="s" s="2">
+      <c r="I435" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12732,10 +12744,10 @@
       <c r="I437">
         <f>((C437-C436)^2+(D437- D436)^2)^.5</f>
       </c>
-      <c r="J437" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K437" s="2" t="s">
+      <c r="J437" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K437" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L437" t="n">
@@ -12779,28 +12791,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="2">
+      <c r="A439" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B439" t="s" s="2">
+      <c r="B439" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C439" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D439" t="s" s="2">
+      <c r="C439" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E439" t="s" s="2">
+      <c r="E439" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F439" t="s" s="2">
+      <c r="F439" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G439" t="s" s="2">
+      <c r="G439" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H439" t="s" s="2">
+      <c r="H439" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12825,28 +12837,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="B441" t="s" s="2">
+      <c r="B441" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C441" t="s" s="2">
+      <c r="C441" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D441" t="s" s="2">
+      <c r="D441" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E441" t="s" s="2">
+      <c r="E441" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F441" t="s" s="2">
+      <c r="F441" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G441" t="s" s="2">
+      <c r="G441" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H441" t="s" s="2">
+      <c r="H441" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I441" t="s" s="2">
+      <c r="I441" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12905,10 +12917,10 @@
       <c r="I443">
         <f>((C443-C442)^2+(D443- D442)^2)^.5</f>
       </c>
-      <c r="J443" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K443" s="2" t="s">
+      <c r="J443" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K443" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L443" t="n">
@@ -12952,28 +12964,28 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s" s="2">
+      <c r="A445" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B445" t="s" s="2">
+      <c r="B445" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C445" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D445" t="s" s="2">
+      <c r="C445" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D445" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E445" t="s" s="2">
+      <c r="E445" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F445" t="s" s="2">
+      <c r="F445" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G445" t="s" s="2">
+      <c r="G445" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H445" t="s" s="2">
+      <c r="H445" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12998,28 +13010,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="B447" t="s" s="2">
+      <c r="B447" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C447" t="s" s="2">
+      <c r="C447" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D447" t="s" s="2">
+      <c r="D447" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E447" t="s" s="2">
+      <c r="E447" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F447" t="s" s="2">
+      <c r="F447" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G447" t="s" s="2">
+      <c r="G447" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H447" t="s" s="2">
+      <c r="H447" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I447" t="s" s="2">
+      <c r="I447" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13078,10 +13090,10 @@
       <c r="I449">
         <f>((C449-C448)^2+(D449- D448)^2)^.5</f>
       </c>
-      <c r="J449" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K449" s="2" t="s">
+      <c r="J449" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K449" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L449" t="n">
@@ -13125,28 +13137,28 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="s" s="2">
+      <c r="A451" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B451" t="s" s="2">
+      <c r="B451" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C451" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D451" t="s" s="2">
+      <c r="C451" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D451" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E451" t="s" s="2">
+      <c r="E451" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F451" t="s" s="2">
+      <c r="F451" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G451" t="s" s="2">
+      <c r="G451" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H451" t="s" s="2">
+      <c r="H451" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13171,28 +13183,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="B453" t="s" s="2">
+      <c r="B453" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C453" t="s" s="2">
+      <c r="C453" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D453" t="s" s="2">
+      <c r="D453" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E453" t="s" s="2">
+      <c r="E453" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F453" t="s" s="2">
+      <c r="F453" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G453" t="s" s="2">
+      <c r="G453" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H453" t="s" s="2">
+      <c r="H453" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I453" t="s" s="2">
+      <c r="I453" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13251,10 +13263,10 @@
       <c r="I455">
         <f>((C455-C454)^2+(D455- D454)^2)^.5</f>
       </c>
-      <c r="J455" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K455" s="2" t="s">
+      <c r="J455" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K455" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L455" t="n">
@@ -13298,28 +13310,28 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="s" s="2">
+      <c r="A457" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B457" t="s" s="2">
+      <c r="B457" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C457" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D457" t="s" s="2">
+      <c r="C457" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D457" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E457" t="s" s="2">
+      <c r="E457" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F457" t="s" s="2">
+      <c r="F457" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G457" t="s" s="2">
+      <c r="G457" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H457" t="s" s="2">
+      <c r="H457" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13344,28 +13356,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="B459" t="s" s="2">
+      <c r="B459" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C459" t="s" s="2">
+      <c r="C459" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D459" t="s" s="2">
+      <c r="D459" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E459" t="s" s="2">
+      <c r="E459" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F459" t="s" s="2">
+      <c r="F459" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G459" t="s" s="2">
+      <c r="G459" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H459" t="s" s="2">
+      <c r="H459" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I459" t="s" s="2">
+      <c r="I459" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13424,10 +13436,10 @@
       <c r="I461">
         <f>((C461-C460)^2+(D461- D460)^2)^.5</f>
       </c>
-      <c r="J461" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K461" s="2" t="s">
+      <c r="J461" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K461" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L461" t="n">
@@ -13471,28 +13483,28 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="s" s="2">
+      <c r="A463" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B463" t="s" s="2">
+      <c r="B463" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C463" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D463" t="s" s="2">
+      <c r="C463" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D463" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E463" t="s" s="2">
+      <c r="E463" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F463" t="s" s="2">
+      <c r="F463" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G463" t="s" s="2">
+      <c r="G463" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H463" t="s" s="2">
+      <c r="H463" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13517,28 +13529,28 @@
       </c>
     </row>
     <row r="465">
-      <c r="B465" t="s" s="2">
+      <c r="B465" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C465" t="s" s="2">
+      <c r="C465" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D465" t="s" s="2">
+      <c r="D465" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E465" t="s" s="2">
+      <c r="E465" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F465" t="s" s="2">
+      <c r="F465" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G465" t="s" s="2">
+      <c r="G465" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H465" t="s" s="2">
+      <c r="H465" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I465" t="s" s="2">
+      <c r="I465" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13626,10 +13638,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="2" t="s">
+      <c r="J468" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13673,28 +13685,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="2">
+      <c r="A470" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="2">
+      <c r="B470" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="2">
+      <c r="C470" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="2">
+      <c r="E470" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="2">
+      <c r="F470" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="2">
+      <c r="G470" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="2">
+      <c r="H470" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13719,28 +13731,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="2">
+      <c r="B472" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="2">
+      <c r="C472" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="2">
+      <c r="D472" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="2">
+      <c r="E472" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="2">
+      <c r="F472" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="2">
+      <c r="G472" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="2">
+      <c r="H472" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="2">
+      <c r="I472" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13799,10 +13811,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="2" t="s">
+      <c r="J474" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13846,28 +13858,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="2">
+      <c r="A476" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="2">
+      <c r="B476" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="2">
+      <c r="C476" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="2">
+      <c r="E476" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="2">
+      <c r="F476" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="2">
+      <c r="G476" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="2">
+      <c r="H476" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13892,28 +13904,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="2">
+      <c r="B478" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="2">
+      <c r="C478" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="2">
+      <c r="D478" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="2">
+      <c r="E478" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="2">
+      <c r="F478" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="2">
+      <c r="G478" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="2">
+      <c r="H478" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="2">
+      <c r="I478" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13972,10 +13984,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="2" t="s">
+      <c r="J480" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14019,28 +14031,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="2">
+      <c r="A482" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="2">
+      <c r="B482" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="2">
+      <c r="C482" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="2">
+      <c r="E482" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="2">
+      <c r="F482" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="2">
+      <c r="G482" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="2">
+      <c r="H482" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14065,28 +14077,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="2">
+      <c r="B484" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="2">
+      <c r="C484" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="2">
+      <c r="D484" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="2">
+      <c r="E484" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="2">
+      <c r="F484" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="2">
+      <c r="G484" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="2">
+      <c r="H484" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="2">
+      <c r="I484" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14145,10 +14157,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="2" t="s">
+      <c r="J486" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">
@@ -14192,28 +14204,28 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="s" s="2">
+      <c r="A488" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B488" t="s" s="2">
+      <c r="B488" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C488" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D488" t="s" s="2">
+      <c r="C488" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D488" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E488" t="s" s="2">
+      <c r="E488" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F488" t="s" s="2">
+      <c r="F488" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G488" t="s" s="2">
+      <c r="G488" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H488" t="s" s="2">
+      <c r="H488" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14238,28 +14250,28 @@
       </c>
     </row>
     <row r="490">
-      <c r="B490" t="s" s="2">
+      <c r="B490" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C490" t="s" s="2">
+      <c r="C490" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D490" t="s" s="2">
+      <c r="D490" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E490" t="s" s="2">
+      <c r="E490" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F490" t="s" s="2">
+      <c r="F490" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G490" t="s" s="2">
+      <c r="G490" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H490" t="s" s="2">
+      <c r="H490" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I490" t="s" s="2">
+      <c r="I490" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14318,10 +14330,10 @@
       <c r="I492">
         <f>((C492-C491)^2+(D492- D491)^2)^.5</f>
       </c>
-      <c r="J492" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K492" s="2" t="s">
+      <c r="J492" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K492" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L492" t="n">
@@ -14365,28 +14377,28 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="s" s="2">
+      <c r="A494" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B494" t="s" s="2">
+      <c r="B494" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C494" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D494" t="s" s="2">
+      <c r="C494" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D494" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E494" t="s" s="2">
+      <c r="E494" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F494" t="s" s="2">
+      <c r="F494" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G494" t="s" s="2">
+      <c r="G494" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H494" t="s" s="2">
+      <c r="H494" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14411,28 +14423,28 @@
       </c>
     </row>
     <row r="496">
-      <c r="B496" t="s" s="2">
+      <c r="B496" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C496" t="s" s="2">
+      <c r="C496" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D496" t="s" s="2">
+      <c r="D496" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E496" t="s" s="2">
+      <c r="E496" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F496" t="s" s="2">
+      <c r="F496" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G496" t="s" s="2">
+      <c r="G496" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H496" t="s" s="2">
+      <c r="H496" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I496" t="s" s="2">
+      <c r="I496" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14491,10 +14503,10 @@
       <c r="I498">
         <f>((C498-C497)^2+(D498- D497)^2)^.5</f>
       </c>
-      <c r="J498" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K498" s="2" t="s">
+      <c r="J498" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K498" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L498" t="n">
@@ -14538,28 +14550,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="s" s="2">
+      <c r="A500" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B500" t="s" s="2">
+      <c r="B500" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C500" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D500" t="s" s="2">
+      <c r="C500" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D500" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E500" t="s" s="2">
+      <c r="E500" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F500" t="s" s="2">
+      <c r="F500" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G500" t="s" s="2">
+      <c r="G500" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H500" t="s" s="2">
+      <c r="H500" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14584,28 +14596,28 @@
       </c>
     </row>
     <row r="502">
-      <c r="B502" t="s" s="2">
+      <c r="B502" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C502" t="s" s="2">
+      <c r="C502" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D502" t="s" s="2">
+      <c r="D502" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E502" t="s" s="2">
+      <c r="E502" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F502" t="s" s="2">
+      <c r="F502" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G502" t="s" s="2">
+      <c r="G502" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H502" t="s" s="2">
+      <c r="H502" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I502" t="s" s="2">
+      <c r="I502" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14693,10 +14705,10 @@
       <c r="I505">
         <f>((C505-C504)^2+(D505- D504)^2)^.5</f>
       </c>
-      <c r="J505" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K505" s="2" t="s">
+      <c r="J505" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K505" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L505" t="n">
@@ -14740,28 +14752,28 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="s" s="2">
+      <c r="A507" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B507" t="s" s="2">
+      <c r="B507" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C507" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D507" t="s" s="2">
+      <c r="C507" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D507" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E507" t="s" s="2">
+      <c r="E507" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F507" t="s" s="2">
+      <c r="F507" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G507" t="s" s="2">
+      <c r="G507" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H507" t="s" s="2">
+      <c r="H507" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14786,28 +14798,28 @@
       </c>
     </row>
     <row r="509">
-      <c r="B509" t="s" s="2">
+      <c r="B509" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C509" t="s" s="2">
+      <c r="C509" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D509" t="s" s="2">
+      <c r="D509" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E509" t="s" s="2">
+      <c r="E509" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F509" t="s" s="2">
+      <c r="F509" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G509" t="s" s="2">
+      <c r="G509" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H509" t="s" s="2">
+      <c r="H509" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I509" t="s" s="2">
+      <c r="I509" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14866,10 +14878,10 @@
       <c r="I511">
         <f>((C511-C510)^2+(D511- D510)^2)^.5</f>
       </c>
-      <c r="J511" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K511" s="2" t="s">
+      <c r="J511" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K511" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L511" t="n">
@@ -14913,28 +14925,28 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="s" s="2">
+      <c r="A513" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B513" t="s" s="2">
+      <c r="B513" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C513" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D513" t="s" s="2">
+      <c r="C513" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D513" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E513" t="s" s="2">
+      <c r="E513" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F513" t="s" s="2">
+      <c r="F513" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G513" t="s" s="2">
+      <c r="G513" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H513" t="s" s="2">
+      <c r="H513" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14959,28 +14971,28 @@
       </c>
     </row>
     <row r="515">
-      <c r="B515" t="s" s="2">
+      <c r="B515" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C515" t="s" s="2">
+      <c r="C515" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D515" t="s" s="2">
+      <c r="D515" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E515" t="s" s="2">
+      <c r="E515" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F515" t="s" s="2">
+      <c r="F515" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G515" t="s" s="2">
+      <c r="G515" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H515" t="s" s="2">
+      <c r="H515" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I515" t="s" s="2">
+      <c r="I515" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15039,10 +15051,10 @@
       <c r="I517">
         <f>((C517-C516)^2+(D517- D516)^2)^.5</f>
       </c>
-      <c r="J517" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K517" s="2" t="s">
+      <c r="J517" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K517" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L517" t="n">
@@ -15086,28 +15098,28 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="s" s="2">
+      <c r="A519" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B519" t="s" s="2">
+      <c r="B519" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C519" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D519" t="s" s="2">
+      <c r="C519" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D519" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E519" t="s" s="2">
+      <c r="E519" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F519" t="s" s="2">
+      <c r="F519" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G519" t="s" s="2">
+      <c r="G519" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H519" t="s" s="2">
+      <c r="H519" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15132,28 +15144,28 @@
       </c>
     </row>
     <row r="521">
-      <c r="B521" t="s" s="2">
+      <c r="B521" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C521" t="s" s="2">
+      <c r="C521" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D521" t="s" s="2">
+      <c r="D521" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E521" t="s" s="2">
+      <c r="E521" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F521" t="s" s="2">
+      <c r="F521" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G521" t="s" s="2">
+      <c r="G521" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H521" t="s" s="2">
+      <c r="H521" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I521" t="s" s="2">
+      <c r="I521" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15212,10 +15224,10 @@
       <c r="I523">
         <f>((C523-C522)^2+(D523- D522)^2)^.5</f>
       </c>
-      <c r="J523" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K523" s="2" t="s">
+      <c r="J523" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K523" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L523" t="n">
@@ -15259,28 +15271,28 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="s" s="2">
+      <c r="A525" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B525" t="s" s="2">
+      <c r="B525" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C525" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D525" t="s" s="2">
+      <c r="C525" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D525" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E525" t="s" s="2">
+      <c r="E525" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F525" t="s" s="2">
+      <c r="F525" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G525" t="s" s="2">
+      <c r="G525" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H525" t="s" s="2">
+      <c r="H525" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15305,28 +15317,28 @@
       </c>
     </row>
     <row r="527">
-      <c r="B527" t="s" s="2">
+      <c r="B527" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C527" t="s" s="2">
+      <c r="C527" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D527" t="s" s="2">
+      <c r="D527" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E527" t="s" s="2">
+      <c r="E527" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F527" t="s" s="2">
+      <c r="F527" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G527" t="s" s="2">
+      <c r="G527" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H527" t="s" s="2">
+      <c r="H527" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I527" t="s" s="2">
+      <c r="I527" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15385,10 +15397,10 @@
       <c r="I529">
         <f>((C529-C528)^2+(D529- D528)^2)^.5</f>
       </c>
-      <c r="J529" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K529" s="2" t="s">
+      <c r="J529" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K529" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L529" t="n">
@@ -15432,28 +15444,28 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="s" s="2">
+      <c r="A531" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B531" t="s" s="2">
+      <c r="B531" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C531" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D531" t="s" s="2">
+      <c r="C531" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D531" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E531" t="s" s="2">
+      <c r="E531" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F531" t="s" s="2">
+      <c r="F531" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G531" t="s" s="2">
+      <c r="G531" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H531" t="s" s="2">
+      <c r="H531" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15478,28 +15490,28 @@
       </c>
     </row>
     <row r="533">
-      <c r="B533" t="s" s="2">
+      <c r="B533" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C533" t="s" s="2">
+      <c r="C533" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D533" t="s" s="2">
+      <c r="D533" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E533" t="s" s="2">
+      <c r="E533" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F533" t="s" s="2">
+      <c r="F533" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G533" t="s" s="2">
+      <c r="G533" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H533" t="s" s="2">
+      <c r="H533" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I533" t="s" s="2">
+      <c r="I533" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15558,10 +15570,10 @@
       <c r="I535">
         <f>((C535-C534)^2+(D535- D534)^2)^.5</f>
       </c>
-      <c r="J535" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K535" s="2" t="s">
+      <c r="J535" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K535" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L535" t="n">
@@ -15605,28 +15617,28 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="s" s="2">
+      <c r="A537" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B537" t="s" s="2">
+      <c r="B537" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C537" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D537" t="s" s="2">
+      <c r="C537" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D537" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E537" t="s" s="2">
+      <c r="E537" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F537" t="s" s="2">
+      <c r="F537" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G537" t="s" s="2">
+      <c r="G537" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H537" t="s" s="2">
+      <c r="H537" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15651,28 +15663,28 @@
       </c>
     </row>
     <row r="539">
-      <c r="B539" t="s" s="2">
+      <c r="B539" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C539" t="s" s="2">
+      <c r="C539" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D539" t="s" s="2">
+      <c r="D539" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E539" t="s" s="2">
+      <c r="E539" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F539" t="s" s="2">
+      <c r="F539" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G539" t="s" s="2">
+      <c r="G539" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H539" t="s" s="2">
+      <c r="H539" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I539" t="s" s="2">
+      <c r="I539" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15731,10 +15743,10 @@
       <c r="I541">
         <f>((C541-C540)^2+(D541- D540)^2)^.5</f>
       </c>
-      <c r="J541" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K541" s="2" t="s">
+      <c r="J541" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K541" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L541" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6400" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19200" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -517,10 +565,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="J13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -564,28 +612,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="4">
+      <c r="A15" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="4">
+      <c r="C15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -610,28 +658,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="4">
+      <c r="I17" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -690,10 +738,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -737,28 +785,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="4">
+      <c r="A21" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="4">
+      <c r="C21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -783,28 +831,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="4">
+      <c r="I23" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -892,10 +940,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="J26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -939,28 +987,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="4">
+      <c r="A28" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="4">
+      <c r="C28" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -985,28 +1033,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="4">
+      <c r="I30" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1065,10 +1113,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1112,28 +1160,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="4">
+      <c r="C34" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1158,28 +1206,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="4">
+      <c r="I36" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1238,10 +1286,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1285,28 +1333,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="C40" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1331,28 +1379,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1411,10 +1459,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="4" t="s">
+      <c r="J44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1458,28 +1506,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="4">
+      <c r="C46" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1504,28 +1552,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="4">
+      <c r="I48" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1613,10 +1661,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1660,28 +1708,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="4">
+      <c r="A53" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="4">
+      <c r="C53" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="4">
+      <c r="G53" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="4">
+      <c r="H53" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1706,28 +1754,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="4">
+      <c r="I55" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1786,10 +1834,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1833,28 +1881,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="4">
+      <c r="A59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="4">
+      <c r="C59" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1879,28 +1927,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="4">
+      <c r="I61" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1959,10 +2007,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="J63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2006,28 +2054,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="4">
+      <c r="A65" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="4">
+      <c r="C65" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2052,28 +2100,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D67" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="4">
+      <c r="I67" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2132,10 +2180,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="J69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2179,28 +2227,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="4">
+      <c r="C71" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2225,28 +2273,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="4">
+      <c r="I73" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2305,10 +2353,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="4" t="s">
+      <c r="J75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2352,28 +2400,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
+      <c r="A77" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="4">
+      <c r="C77" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2398,28 +2446,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="4">
+      <c r="I79" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2478,10 +2526,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="J81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2525,28 +2573,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="C83" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2571,28 +2619,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="4">
+      <c r="I85" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2651,10 +2699,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="J87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2698,28 +2746,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="4">
+      <c r="C89" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2744,28 +2792,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2824,10 +2872,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="4" t="s">
+      <c r="J93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2871,28 +2919,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="4">
+      <c r="C95" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2917,28 +2965,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="4">
+      <c r="I97" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2997,10 +3045,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="4" t="s">
+      <c r="J99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3044,28 +3092,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="4">
+      <c r="C101" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3090,28 +3138,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="4">
+      <c r="I103" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3170,10 +3218,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="4" t="s">
+      <c r="J105" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3217,28 +3265,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="4">
+      <c r="A107" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="4">
+      <c r="C107" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3263,28 +3311,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="4">
+      <c r="I109" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3343,10 +3391,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="4" t="s">
+      <c r="J111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3390,28 +3438,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="4">
+      <c r="A113" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="4">
+      <c r="C113" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3436,28 +3484,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="4">
+      <c r="I115" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3516,10 +3564,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="4" t="s">
+      <c r="J117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3563,28 +3611,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="4">
+      <c r="C119" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3609,28 +3657,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3718,10 +3766,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3765,28 +3813,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3811,28 +3859,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3891,10 +3939,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3938,28 +3986,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3984,28 +4032,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4064,10 +4112,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="4" t="s">
+      <c r="J136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4111,28 +4159,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="4">
+      <c r="C138" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4157,28 +4205,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4237,10 +4285,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="4" t="s">
+      <c r="J142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4284,28 +4332,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="4">
+      <c r="A144" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="4">
+      <c r="C144" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4330,28 +4378,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="4">
+      <c r="D146" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="4">
+      <c r="I146" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4410,10 +4458,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="4" t="s">
+      <c r="J148" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4457,28 +4505,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="4">
+      <c r="A150" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="4">
+      <c r="C150" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4503,28 +4551,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="4">
+      <c r="I152" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4583,10 +4631,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="4" t="s">
+      <c r="J154" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4630,28 +4678,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="4">
+      <c r="A156" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="4">
+      <c r="C156" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4676,28 +4724,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="4">
+      <c r="I158" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4756,10 +4804,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="J160" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4803,28 +4851,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="4">
+      <c r="C162" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4849,28 +4897,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4929,10 +4977,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="J166" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4976,28 +5024,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="4">
+      <c r="C168" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5022,28 +5070,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5102,10 +5150,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="4" t="s">
+      <c r="J172" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5149,28 +5197,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="4">
+      <c r="C174" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5195,28 +5243,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="4">
+      <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="4">
+      <c r="D176" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="4">
+      <c r="I176" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5304,10 +5352,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="4" t="s">
+      <c r="J179" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5351,28 +5399,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="4">
+      <c r="C181" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5397,28 +5445,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5506,10 +5554,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="4" t="s">
+      <c r="J186" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5553,28 +5601,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="4">
+      <c r="C188" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5599,28 +5647,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="4">
+      <c r="C190" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="4">
+      <c r="D190" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="4">
+      <c r="I190" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5679,10 +5727,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="4" t="s">
+      <c r="J192" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5726,28 +5774,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="4">
+      <c r="A194" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="4">
+      <c r="C194" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5772,28 +5820,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="4">
+      <c r="C196" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="4">
+      <c r="D196" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="4">
+      <c r="I196" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5852,10 +5900,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="4" t="s">
+      <c r="J198" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5899,28 +5947,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="4">
+      <c r="A200" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="4">
+      <c r="C200" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="4">
+      <c r="G200" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="4">
+      <c r="H200" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5945,28 +5993,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="4">
+      <c r="C202" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="4">
+      <c r="D202" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="4">
+      <c r="G202" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="4">
+      <c r="H202" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="4">
+      <c r="I202" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6054,10 +6102,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="4" t="s">
+      <c r="J205" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6101,28 +6149,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="4">
+      <c r="A207" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="4">
+      <c r="C207" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6147,28 +6195,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="4">
+      <c r="C209" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="4">
+      <c r="D209" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="4">
+      <c r="I209" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6227,10 +6275,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="4" t="s">
+      <c r="J211" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6274,28 +6322,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="4">
+      <c r="A213" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="4">
+      <c r="C213" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6320,28 +6368,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="4">
+      <c r="C215" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="4">
+      <c r="D215" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="4">
+      <c r="I215" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6400,10 +6448,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6447,28 +6495,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6493,28 +6541,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6573,10 +6621,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6620,28 +6668,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6666,28 +6714,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6775,10 +6823,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="4" t="s">
+      <c r="J230" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6822,28 +6870,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="4">
+      <c r="A232" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="4">
+      <c r="C232" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="4">
+      <c r="G232" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="4">
+      <c r="H232" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6868,28 +6916,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="4">
+      <c r="C234" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="4">
+      <c r="D234" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="4">
+      <c r="I234" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6948,10 +6996,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="4" t="s">
+      <c r="J236" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6995,28 +7043,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="4">
+      <c r="A238" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="4">
+      <c r="C238" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7041,28 +7089,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="4">
+      <c r="C240" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="4">
+      <c r="D240" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="4">
+      <c r="I240" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7121,10 +7169,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="4" t="s">
+      <c r="J242" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7168,28 +7216,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="4">
+      <c r="A244" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="4">
+      <c r="C244" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7214,28 +7262,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="4">
+      <c r="C246" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="4">
+      <c r="D246" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="4">
+      <c r="I246" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7294,10 +7342,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="4" t="s">
+      <c r="J248" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7341,28 +7389,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="4">
+      <c r="A250" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="4">
+      <c r="C250" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7387,28 +7435,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="4">
+      <c r="C252" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="4">
+      <c r="D252" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="4">
+      <c r="I252" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7467,10 +7515,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="4" t="s">
+      <c r="J254" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7514,28 +7562,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="4">
+      <c r="A256" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="4">
+      <c r="C256" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7560,28 +7608,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="4">
+      <c r="C258" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="4">
+      <c r="D258" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="4">
+      <c r="I258" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7640,10 +7688,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7687,28 +7735,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7733,28 +7781,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7842,10 +7890,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="4" t="s">
+      <c r="J267" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7889,28 +7937,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="4">
+      <c r="A269" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="4">
+      <c r="C269" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="4">
+      <c r="G269" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="4">
+      <c r="H269" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7935,28 +7983,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="4">
+      <c r="C271" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="4">
+      <c r="D271" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="4">
+      <c r="I271" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8044,10 +8092,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="4" t="s">
+      <c r="J274" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8091,28 +8139,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="4">
+      <c r="A276" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="4">
+      <c r="C276" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8137,28 +8185,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="4">
+      <c r="B278" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="4">
+      <c r="C278" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="4">
+      <c r="D278" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="4">
+      <c r="E278" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="4">
+      <c r="F278" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="4">
+      <c r="G278" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="4">
+      <c r="H278" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="4">
+      <c r="I278" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8217,10 +8265,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="J280" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8264,28 +8312,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="4">
+      <c r="A282" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="4">
+      <c r="C282" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8310,28 +8358,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="4">
+      <c r="C284" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="4">
+      <c r="D284" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="4">
+      <c r="I284" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8390,10 +8438,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="4" t="s">
+      <c r="J286" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8437,28 +8485,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="4">
+      <c r="A288" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="4">
+      <c r="C288" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8483,28 +8531,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="4">
+      <c r="C290" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="4">
+      <c r="D290" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="4">
+      <c r="I290" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8563,10 +8611,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="4" t="s">
+      <c r="J292" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8610,28 +8658,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="4">
+      <c r="A294" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="4">
+      <c r="C294" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8656,28 +8704,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="4">
+      <c r="C296" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="4">
+      <c r="D296" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="4">
+      <c r="E296" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="4">
+      <c r="F296" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="4">
+      <c r="G296" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="4">
+      <c r="H296" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="4">
+      <c r="I296" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8736,10 +8784,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="4" t="s">
+      <c r="J298" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8783,28 +8831,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="4">
+      <c r="A300" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="4">
+      <c r="C300" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8829,28 +8877,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="4">
+      <c r="C302" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="4">
+      <c r="D302" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="4">
+      <c r="I302" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8909,10 +8957,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="4" t="s">
+      <c r="J304" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8956,28 +9004,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="4">
+      <c r="A306" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="4">
+      <c r="C306" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9002,28 +9050,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="4">
+      <c r="B308" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="4">
+      <c r="C308" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="4">
+      <c r="D308" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="4">
+      <c r="E308" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="4">
+      <c r="F308" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="4">
+      <c r="G308" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="4">
+      <c r="H308" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="4">
+      <c r="I308" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9082,10 +9130,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="4" t="s">
+      <c r="J310" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9129,28 +9177,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="4">
+      <c r="A312" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="4">
+      <c r="B312" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="4">
+      <c r="C312" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="4">
+      <c r="E312" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="4">
+      <c r="F312" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="4">
+      <c r="G312" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="4">
+      <c r="H312" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9175,28 +9223,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="4">
+      <c r="B314" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="4">
+      <c r="C314" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="4">
+      <c r="D314" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="4">
+      <c r="E314" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="4">
+      <c r="F314" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="4">
+      <c r="G314" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="4">
+      <c r="H314" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="4">
+      <c r="I314" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9255,10 +9303,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="4" t="s">
+      <c r="J316" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9302,28 +9350,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="4">
+      <c r="A318" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="4">
+      <c r="C318" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="4">
+      <c r="E318" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="4">
+      <c r="F318" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="4">
+      <c r="G318" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="4">
+      <c r="H318" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9348,28 +9396,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="4">
+      <c r="B320" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="4">
+      <c r="C320" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="4">
+      <c r="D320" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="4">
+      <c r="E320" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="4">
+      <c r="F320" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="4">
+      <c r="G320" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="4">
+      <c r="H320" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="4">
+      <c r="I320" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9428,10 +9476,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="4" t="s">
+      <c r="J322" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9475,28 +9523,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="4">
+      <c r="A324" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="4">
+      <c r="B324" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="4">
+      <c r="C324" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="4">
+      <c r="E324" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="4">
+      <c r="F324" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="4">
+      <c r="G324" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="4">
+      <c r="H324" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9521,28 +9569,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="4">
+      <c r="B326" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="4">
+      <c r="C326" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="4">
+      <c r="D326" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="4">
+      <c r="E326" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="4">
+      <c r="F326" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="4">
+      <c r="G326" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="4">
+      <c r="H326" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="4">
+      <c r="I326" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9601,10 +9649,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="4" t="s">
+      <c r="J328" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9648,28 +9696,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="4">
+      <c r="A330" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="4">
+      <c r="B330" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="4">
+      <c r="C330" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="4">
+      <c r="E330" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="4">
+      <c r="F330" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="4">
+      <c r="G330" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="4">
+      <c r="H330" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9694,28 +9742,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="4">
+      <c r="B332" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="4">
+      <c r="C332" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="4">
+      <c r="D332" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="4">
+      <c r="E332" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="4">
+      <c r="F332" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="4">
+      <c r="G332" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="4">
+      <c r="H332" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="4">
+      <c r="I332" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9774,10 +9822,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="4" t="s">
+      <c r="J334" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9821,28 +9869,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="4">
+      <c r="A336" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="4">
+      <c r="B336" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="4">
+      <c r="C336" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="4">
+      <c r="E336" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="4">
+      <c r="F336" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="4">
+      <c r="G336" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="4">
+      <c r="H336" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9867,28 +9915,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="4">
+      <c r="B338" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="4">
+      <c r="C338" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="4">
+      <c r="D338" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="4">
+      <c r="E338" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="4">
+      <c r="F338" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="4">
+      <c r="G338" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="4">
+      <c r="H338" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="4">
+      <c r="I338" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9947,10 +9995,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="4" t="s">
+      <c r="J340" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9994,28 +10042,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="4">
+      <c r="A342" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="4">
+      <c r="B342" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="4">
+      <c r="C342" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="4">
+      <c r="E342" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="4">
+      <c r="F342" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="4">
+      <c r="G342" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="4">
+      <c r="H342" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10040,28 +10088,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="4">
+      <c r="B344" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="4">
+      <c r="C344" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="4">
+      <c r="D344" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="4">
+      <c r="E344" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="4">
+      <c r="F344" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="4">
+      <c r="G344" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="4">
+      <c r="H344" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="4">
+      <c r="I344" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10120,10 +10168,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="4" t="s">
+      <c r="J346" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10167,28 +10215,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="4">
+      <c r="A348" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="4">
+      <c r="B348" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="4">
+      <c r="C348" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="4">
+      <c r="E348" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="4">
+      <c r="F348" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="4">
+      <c r="G348" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="4">
+      <c r="H348" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10213,28 +10261,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="4">
+      <c r="B350" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="4">
+      <c r="C350" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="4">
+      <c r="D350" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="4">
+      <c r="E350" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="4">
+      <c r="F350" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="4">
+      <c r="G350" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="4">
+      <c r="H350" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="4">
+      <c r="I350" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10293,10 +10341,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="4" t="s">
+      <c r="J352" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10340,28 +10388,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="4">
+      <c r="A354" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="4">
+      <c r="B354" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="4">
+      <c r="C354" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="4">
+      <c r="E354" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="4">
+      <c r="F354" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="4">
+      <c r="G354" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="4">
+      <c r="H354" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10386,28 +10434,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="4">
+      <c r="B356" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="4">
+      <c r="C356" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="4">
+      <c r="D356" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="4">
+      <c r="E356" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="4">
+      <c r="F356" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="4">
+      <c r="G356" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="4">
+      <c r="H356" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="4">
+      <c r="I356" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10466,10 +10514,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="4" t="s">
+      <c r="J358" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10513,28 +10561,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="4">
+      <c r="A360" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="4">
+      <c r="B360" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="4">
+      <c r="C360" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="4">
+      <c r="E360" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="4">
+      <c r="F360" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="4">
+      <c r="G360" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="4">
+      <c r="H360" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10559,28 +10607,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="4">
+      <c r="B362" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="4">
+      <c r="C362" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="4">
+      <c r="D362" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="4">
+      <c r="E362" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="4">
+      <c r="F362" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="4">
+      <c r="G362" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="4">
+      <c r="H362" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="4">
+      <c r="I362" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10639,10 +10687,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="4" t="s">
+      <c r="J364" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10686,28 +10734,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="4">
+      <c r="A366" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="4">
+      <c r="B366" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="4">
+      <c r="C366" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="4">
+      <c r="E366" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="4">
+      <c r="F366" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="4">
+      <c r="G366" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="4">
+      <c r="H366" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10732,28 +10780,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="4">
+      <c r="B368" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="4">
+      <c r="C368" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="4">
+      <c r="D368" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="4">
+      <c r="E368" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="4">
+      <c r="F368" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="4">
+      <c r="G368" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="4">
+      <c r="H368" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="4">
+      <c r="I368" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10812,10 +10860,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="4" t="s">
+      <c r="J370" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10859,28 +10907,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="4">
+      <c r="A372" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="4">
+      <c r="B372" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="4">
+      <c r="C372" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="4">
+      <c r="E372" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="4">
+      <c r="F372" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="4">
+      <c r="G372" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="4">
+      <c r="H372" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10905,28 +10953,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="4">
+      <c r="B374" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="4">
+      <c r="C374" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="4">
+      <c r="D374" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="4">
+      <c r="E374" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="4">
+      <c r="F374" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="4">
+      <c r="G374" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="4">
+      <c r="H374" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="4">
+      <c r="I374" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10985,10 +11033,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="4" t="s">
+      <c r="J376" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11032,28 +11080,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="4">
+      <c r="A378" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="4">
+      <c r="B378" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="4">
+      <c r="C378" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="4">
+      <c r="E378" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="4">
+      <c r="F378" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="4">
+      <c r="G378" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="4">
+      <c r="H378" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11078,28 +11126,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="4">
+      <c r="B380" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="4">
+      <c r="C380" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="4">
+      <c r="D380" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="4">
+      <c r="E380" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="4">
+      <c r="F380" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="4">
+      <c r="G380" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="4">
+      <c r="H380" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="4">
+      <c r="I380" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11158,10 +11206,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="4" t="s">
+      <c r="J382" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11205,28 +11253,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="4">
+      <c r="A384" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="4">
+      <c r="B384" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="4">
+      <c r="C384" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="4">
+      <c r="E384" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="4">
+      <c r="F384" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="4">
+      <c r="G384" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="4">
+      <c r="H384" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11251,28 +11299,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="4">
+      <c r="B386" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="4">
+      <c r="C386" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="4">
+      <c r="D386" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="4">
+      <c r="E386" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="4">
+      <c r="F386" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="4">
+      <c r="G386" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="4">
+      <c r="H386" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="4">
+      <c r="I386" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11331,10 +11379,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="4" t="s">
+      <c r="J388" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11378,28 +11426,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="4">
+      <c r="A390" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="4">
+      <c r="B390" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="4">
+      <c r="C390" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="4">
+      <c r="E390" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="4">
+      <c r="F390" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="4">
+      <c r="G390" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="4">
+      <c r="H390" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11424,28 +11472,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="4">
+      <c r="B392" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="4">
+      <c r="C392" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="4">
+      <c r="D392" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="4">
+      <c r="E392" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="4">
+      <c r="F392" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="4">
+      <c r="G392" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="4">
+      <c r="H392" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="4">
+      <c r="I392" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11504,10 +11552,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="4" t="s">
+      <c r="J394" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11551,28 +11599,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="4">
+      <c r="A396" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="4">
+      <c r="C396" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11597,28 +11645,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="4">
+      <c r="B398" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="4">
+      <c r="C398" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="4">
+      <c r="D398" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="4">
+      <c r="E398" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="4">
+      <c r="F398" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="4">
+      <c r="G398" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="4">
+      <c r="H398" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="4">
+      <c r="I398" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11677,10 +11725,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="4" t="s">
+      <c r="J400" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11724,28 +11772,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="4">
+      <c r="A402" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="4">
+      <c r="B402" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="4">
+      <c r="C402" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="4">
+      <c r="E402" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="4">
+      <c r="F402" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="4">
+      <c r="G402" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="4">
+      <c r="H402" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11770,28 +11818,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="4">
+      <c r="B404" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="4">
+      <c r="C404" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="4">
+      <c r="D404" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="4">
+      <c r="E404" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="4">
+      <c r="F404" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="4">
+      <c r="G404" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="4">
+      <c r="H404" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="4">
+      <c r="I404" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11850,10 +11898,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="4" t="s">
+      <c r="J406" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11897,28 +11945,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="4">
+      <c r="A408" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="4">
+      <c r="B408" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="4">
+      <c r="C408" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="4">
+      <c r="E408" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="4">
+      <c r="F408" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="4">
+      <c r="G408" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="4">
+      <c r="H408" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11943,28 +11991,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="4">
+      <c r="B410" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="4">
+      <c r="C410" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="4">
+      <c r="D410" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="4">
+      <c r="E410" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="4">
+      <c r="F410" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="4">
+      <c r="G410" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="4">
+      <c r="H410" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="4">
+      <c r="I410" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12023,10 +12071,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="4" t="s">
+      <c r="J412" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12070,28 +12118,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="4">
+      <c r="A414" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="4">
+      <c r="B414" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="4">
+      <c r="C414" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="4">
+      <c r="E414" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="4">
+      <c r="F414" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="4">
+      <c r="G414" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="4">
+      <c r="H414" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12116,28 +12164,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="4">
+      <c r="B416" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="4">
+      <c r="C416" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="4">
+      <c r="D416" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="4">
+      <c r="E416" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="4">
+      <c r="F416" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="4">
+      <c r="G416" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="4">
+      <c r="H416" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="4">
+      <c r="I416" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12225,10 +12273,10 @@
       <c r="I419">
         <f>((C419-C418)^2+(D419- D418)^2)^.5</f>
       </c>
-      <c r="J419" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K419" s="4" t="s">
+      <c r="J419" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K419" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L419" t="n">
@@ -12272,28 +12320,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="s" s="4">
+      <c r="A421" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B421" t="s" s="4">
+      <c r="B421" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C421" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D421" t="s" s="4">
+      <c r="C421" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E421" t="s" s="4">
+      <c r="E421" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F421" t="s" s="4">
+      <c r="F421" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G421" t="s" s="4">
+      <c r="G421" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H421" t="s" s="4">
+      <c r="H421" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12318,28 +12366,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="B423" t="s" s="4">
+      <c r="B423" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C423" t="s" s="4">
+      <c r="C423" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D423" t="s" s="4">
+      <c r="D423" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E423" t="s" s="4">
+      <c r="E423" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F423" t="s" s="4">
+      <c r="F423" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G423" t="s" s="4">
+      <c r="G423" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H423" t="s" s="4">
+      <c r="H423" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I423" t="s" s="4">
+      <c r="I423" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12398,10 +12446,10 @@
       <c r="I425">
         <f>((C425-C424)^2+(D425- D424)^2)^.5</f>
       </c>
-      <c r="J425" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K425" s="4" t="s">
+      <c r="J425" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K425" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L425" t="n">
@@ -12445,28 +12493,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s" s="4">
+      <c r="A427" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B427" t="s" s="4">
+      <c r="B427" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C427" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D427" t="s" s="4">
+      <c r="C427" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E427" t="s" s="4">
+      <c r="E427" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F427" t="s" s="4">
+      <c r="F427" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G427" t="s" s="4">
+      <c r="G427" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H427" t="s" s="4">
+      <c r="H427" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12491,28 +12539,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="B429" t="s" s="4">
+      <c r="B429" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C429" t="s" s="4">
+      <c r="C429" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D429" t="s" s="4">
+      <c r="D429" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E429" t="s" s="4">
+      <c r="E429" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F429" t="s" s="4">
+      <c r="F429" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G429" t="s" s="4">
+      <c r="G429" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H429" t="s" s="4">
+      <c r="H429" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I429" t="s" s="4">
+      <c r="I429" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12571,10 +12619,10 @@
       <c r="I431">
         <f>((C431-C430)^2+(D431- D430)^2)^.5</f>
       </c>
-      <c r="J431" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K431" s="4" t="s">
+      <c r="J431" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K431" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L431" t="n">
@@ -12618,28 +12666,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="s" s="4">
+      <c r="A433" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B433" t="s" s="4">
+      <c r="B433" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C433" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D433" t="s" s="4">
+      <c r="C433" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D433" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E433" t="s" s="4">
+      <c r="E433" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F433" t="s" s="4">
+      <c r="F433" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G433" t="s" s="4">
+      <c r="G433" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H433" t="s" s="4">
+      <c r="H433" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12664,28 +12712,28 @@
       </c>
     </row>
     <row r="435">
-      <c r="B435" t="s" s="4">
+      <c r="B435" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C435" t="s" s="4">
+      <c r="C435" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D435" t="s" s="4">
+      <c r="D435" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E435" t="s" s="4">
+      <c r="E435" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F435" t="s" s="4">
+      <c r="F435" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G435" t="s" s="4">
+      <c r="G435" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H435" t="s" s="4">
+      <c r="H435" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I435" t="s" s="4">
+      <c r="I435" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12744,10 +12792,10 @@
       <c r="I437">
         <f>((C437-C436)^2+(D437- D436)^2)^.5</f>
       </c>
-      <c r="J437" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K437" s="4" t="s">
+      <c r="J437" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K437" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L437" t="n">
@@ -12791,28 +12839,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="4">
+      <c r="A439" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B439" t="s" s="4">
+      <c r="B439" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C439" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D439" t="s" s="4">
+      <c r="C439" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E439" t="s" s="4">
+      <c r="E439" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F439" t="s" s="4">
+      <c r="F439" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G439" t="s" s="4">
+      <c r="G439" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H439" t="s" s="4">
+      <c r="H439" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12837,28 +12885,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="B441" t="s" s="4">
+      <c r="B441" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C441" t="s" s="4">
+      <c r="C441" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D441" t="s" s="4">
+      <c r="D441" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E441" t="s" s="4">
+      <c r="E441" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F441" t="s" s="4">
+      <c r="F441" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G441" t="s" s="4">
+      <c r="G441" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H441" t="s" s="4">
+      <c r="H441" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I441" t="s" s="4">
+      <c r="I441" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12917,10 +12965,10 @@
       <c r="I443">
         <f>((C443-C442)^2+(D443- D442)^2)^.5</f>
       </c>
-      <c r="J443" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K443" s="4" t="s">
+      <c r="J443" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K443" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L443" t="n">
@@ -12964,28 +13012,28 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s" s="4">
+      <c r="A445" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B445" t="s" s="4">
+      <c r="B445" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C445" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D445" t="s" s="4">
+      <c r="C445" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D445" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E445" t="s" s="4">
+      <c r="E445" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F445" t="s" s="4">
+      <c r="F445" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G445" t="s" s="4">
+      <c r="G445" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H445" t="s" s="4">
+      <c r="H445" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13010,28 +13058,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="B447" t="s" s="4">
+      <c r="B447" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C447" t="s" s="4">
+      <c r="C447" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D447" t="s" s="4">
+      <c r="D447" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E447" t="s" s="4">
+      <c r="E447" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F447" t="s" s="4">
+      <c r="F447" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G447" t="s" s="4">
+      <c r="G447" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H447" t="s" s="4">
+      <c r="H447" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I447" t="s" s="4">
+      <c r="I447" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13090,10 +13138,10 @@
       <c r="I449">
         <f>((C449-C448)^2+(D449- D448)^2)^.5</f>
       </c>
-      <c r="J449" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K449" s="4" t="s">
+      <c r="J449" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K449" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L449" t="n">
@@ -13137,28 +13185,28 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="s" s="4">
+      <c r="A451" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B451" t="s" s="4">
+      <c r="B451" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C451" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D451" t="s" s="4">
+      <c r="C451" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D451" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E451" t="s" s="4">
+      <c r="E451" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F451" t="s" s="4">
+      <c r="F451" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G451" t="s" s="4">
+      <c r="G451" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H451" t="s" s="4">
+      <c r="H451" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13183,28 +13231,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="B453" t="s" s="4">
+      <c r="B453" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C453" t="s" s="4">
+      <c r="C453" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D453" t="s" s="4">
+      <c r="D453" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E453" t="s" s="4">
+      <c r="E453" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F453" t="s" s="4">
+      <c r="F453" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G453" t="s" s="4">
+      <c r="G453" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H453" t="s" s="4">
+      <c r="H453" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I453" t="s" s="4">
+      <c r="I453" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13263,10 +13311,10 @@
       <c r="I455">
         <f>((C455-C454)^2+(D455- D454)^2)^.5</f>
       </c>
-      <c r="J455" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K455" s="4" t="s">
+      <c r="J455" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K455" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L455" t="n">
@@ -13310,28 +13358,28 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="s" s="4">
+      <c r="A457" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B457" t="s" s="4">
+      <c r="B457" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C457" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D457" t="s" s="4">
+      <c r="C457" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D457" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E457" t="s" s="4">
+      <c r="E457" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F457" t="s" s="4">
+      <c r="F457" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G457" t="s" s="4">
+      <c r="G457" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H457" t="s" s="4">
+      <c r="H457" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13356,28 +13404,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="B459" t="s" s="4">
+      <c r="B459" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C459" t="s" s="4">
+      <c r="C459" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D459" t="s" s="4">
+      <c r="D459" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E459" t="s" s="4">
+      <c r="E459" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F459" t="s" s="4">
+      <c r="F459" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G459" t="s" s="4">
+      <c r="G459" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H459" t="s" s="4">
+      <c r="H459" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I459" t="s" s="4">
+      <c r="I459" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13436,10 +13484,10 @@
       <c r="I461">
         <f>((C461-C460)^2+(D461- D460)^2)^.5</f>
       </c>
-      <c r="J461" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K461" s="4" t="s">
+      <c r="J461" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K461" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L461" t="n">
@@ -13483,28 +13531,28 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="s" s="4">
+      <c r="A463" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B463" t="s" s="4">
+      <c r="B463" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C463" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D463" t="s" s="4">
+      <c r="C463" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D463" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E463" t="s" s="4">
+      <c r="E463" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F463" t="s" s="4">
+      <c r="F463" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G463" t="s" s="4">
+      <c r="G463" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H463" t="s" s="4">
+      <c r="H463" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13529,28 +13577,28 @@
       </c>
     </row>
     <row r="465">
-      <c r="B465" t="s" s="4">
+      <c r="B465" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C465" t="s" s="4">
+      <c r="C465" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D465" t="s" s="4">
+      <c r="D465" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E465" t="s" s="4">
+      <c r="E465" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F465" t="s" s="4">
+      <c r="F465" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G465" t="s" s="4">
+      <c r="G465" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H465" t="s" s="4">
+      <c r="H465" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I465" t="s" s="4">
+      <c r="I465" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13638,10 +13686,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="4" t="s">
+      <c r="J468" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13685,28 +13733,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="4">
+      <c r="A470" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="4">
+      <c r="B470" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="4">
+      <c r="C470" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="4">
+      <c r="E470" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="4">
+      <c r="F470" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="4">
+      <c r="G470" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="4">
+      <c r="H470" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13731,28 +13779,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="4">
+      <c r="B472" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="4">
+      <c r="C472" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="4">
+      <c r="D472" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="4">
+      <c r="E472" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="4">
+      <c r="F472" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="4">
+      <c r="G472" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="4">
+      <c r="H472" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="4">
+      <c r="I472" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13811,10 +13859,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="4" t="s">
+      <c r="J474" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13858,28 +13906,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="4">
+      <c r="A476" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="4">
+      <c r="B476" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="4">
+      <c r="C476" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="4">
+      <c r="E476" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="4">
+      <c r="F476" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="4">
+      <c r="G476" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="4">
+      <c r="H476" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13904,28 +13952,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="4">
+      <c r="B478" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="4">
+      <c r="C478" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="4">
+      <c r="D478" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="4">
+      <c r="E478" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="4">
+      <c r="F478" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="4">
+      <c r="G478" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="4">
+      <c r="H478" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="4">
+      <c r="I478" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13984,10 +14032,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="4" t="s">
+      <c r="J480" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14031,28 +14079,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="4">
+      <c r="A482" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="4">
+      <c r="B482" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="4">
+      <c r="C482" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="4">
+      <c r="E482" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="4">
+      <c r="F482" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="4">
+      <c r="G482" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="4">
+      <c r="H482" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14077,28 +14125,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="4">
+      <c r="B484" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="4">
+      <c r="C484" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="4">
+      <c r="D484" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="4">
+      <c r="E484" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="4">
+      <c r="F484" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="4">
+      <c r="G484" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="4">
+      <c r="H484" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="4">
+      <c r="I484" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14157,10 +14205,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="4" t="s">
+      <c r="J486" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">
@@ -14204,28 +14252,28 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="s" s="4">
+      <c r="A488" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B488" t="s" s="4">
+      <c r="B488" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C488" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D488" t="s" s="4">
+      <c r="C488" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D488" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E488" t="s" s="4">
+      <c r="E488" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F488" t="s" s="4">
+      <c r="F488" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G488" t="s" s="4">
+      <c r="G488" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H488" t="s" s="4">
+      <c r="H488" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14250,28 +14298,28 @@
       </c>
     </row>
     <row r="490">
-      <c r="B490" t="s" s="4">
+      <c r="B490" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C490" t="s" s="4">
+      <c r="C490" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D490" t="s" s="4">
+      <c r="D490" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E490" t="s" s="4">
+      <c r="E490" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F490" t="s" s="4">
+      <c r="F490" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G490" t="s" s="4">
+      <c r="G490" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H490" t="s" s="4">
+      <c r="H490" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I490" t="s" s="4">
+      <c r="I490" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14330,10 +14378,10 @@
       <c r="I492">
         <f>((C492-C491)^2+(D492- D491)^2)^.5</f>
       </c>
-      <c r="J492" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K492" s="4" t="s">
+      <c r="J492" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K492" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L492" t="n">
@@ -14377,28 +14425,28 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="s" s="4">
+      <c r="A494" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B494" t="s" s="4">
+      <c r="B494" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C494" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D494" t="s" s="4">
+      <c r="C494" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D494" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E494" t="s" s="4">
+      <c r="E494" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F494" t="s" s="4">
+      <c r="F494" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G494" t="s" s="4">
+      <c r="G494" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H494" t="s" s="4">
+      <c r="H494" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14423,28 +14471,28 @@
       </c>
     </row>
     <row r="496">
-      <c r="B496" t="s" s="4">
+      <c r="B496" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C496" t="s" s="4">
+      <c r="C496" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D496" t="s" s="4">
+      <c r="D496" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E496" t="s" s="4">
+      <c r="E496" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F496" t="s" s="4">
+      <c r="F496" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G496" t="s" s="4">
+      <c r="G496" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H496" t="s" s="4">
+      <c r="H496" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I496" t="s" s="4">
+      <c r="I496" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14503,10 +14551,10 @@
       <c r="I498">
         <f>((C498-C497)^2+(D498- D497)^2)^.5</f>
       </c>
-      <c r="J498" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K498" s="4" t="s">
+      <c r="J498" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K498" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L498" t="n">
@@ -14550,28 +14598,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="s" s="4">
+      <c r="A500" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B500" t="s" s="4">
+      <c r="B500" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C500" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D500" t="s" s="4">
+      <c r="C500" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D500" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E500" t="s" s="4">
+      <c r="E500" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F500" t="s" s="4">
+      <c r="F500" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G500" t="s" s="4">
+      <c r="G500" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H500" t="s" s="4">
+      <c r="H500" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14596,28 +14644,28 @@
       </c>
     </row>
     <row r="502">
-      <c r="B502" t="s" s="4">
+      <c r="B502" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C502" t="s" s="4">
+      <c r="C502" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D502" t="s" s="4">
+      <c r="D502" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E502" t="s" s="4">
+      <c r="E502" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F502" t="s" s="4">
+      <c r="F502" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G502" t="s" s="4">
+      <c r="G502" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H502" t="s" s="4">
+      <c r="H502" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I502" t="s" s="4">
+      <c r="I502" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14705,10 +14753,10 @@
       <c r="I505">
         <f>((C505-C504)^2+(D505- D504)^2)^.5</f>
       </c>
-      <c r="J505" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K505" s="4" t="s">
+      <c r="J505" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K505" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L505" t="n">
@@ -14752,28 +14800,28 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="s" s="4">
+      <c r="A507" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B507" t="s" s="4">
+      <c r="B507" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C507" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D507" t="s" s="4">
+      <c r="C507" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D507" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E507" t="s" s="4">
+      <c r="E507" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F507" t="s" s="4">
+      <c r="F507" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G507" t="s" s="4">
+      <c r="G507" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H507" t="s" s="4">
+      <c r="H507" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14798,28 +14846,28 @@
       </c>
     </row>
     <row r="509">
-      <c r="B509" t="s" s="4">
+      <c r="B509" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C509" t="s" s="4">
+      <c r="C509" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D509" t="s" s="4">
+      <c r="D509" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E509" t="s" s="4">
+      <c r="E509" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F509" t="s" s="4">
+      <c r="F509" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G509" t="s" s="4">
+      <c r="G509" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H509" t="s" s="4">
+      <c r="H509" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I509" t="s" s="4">
+      <c r="I509" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14878,10 +14926,10 @@
       <c r="I511">
         <f>((C511-C510)^2+(D511- D510)^2)^.5</f>
       </c>
-      <c r="J511" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K511" s="4" t="s">
+      <c r="J511" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K511" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L511" t="n">
@@ -14925,28 +14973,28 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="s" s="4">
+      <c r="A513" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B513" t="s" s="4">
+      <c r="B513" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C513" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D513" t="s" s="4">
+      <c r="C513" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D513" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E513" t="s" s="4">
+      <c r="E513" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F513" t="s" s="4">
+      <c r="F513" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G513" t="s" s="4">
+      <c r="G513" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H513" t="s" s="4">
+      <c r="H513" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14971,28 +15019,28 @@
       </c>
     </row>
     <row r="515">
-      <c r="B515" t="s" s="4">
+      <c r="B515" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C515" t="s" s="4">
+      <c r="C515" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D515" t="s" s="4">
+      <c r="D515" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E515" t="s" s="4">
+      <c r="E515" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F515" t="s" s="4">
+      <c r="F515" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G515" t="s" s="4">
+      <c r="G515" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H515" t="s" s="4">
+      <c r="H515" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I515" t="s" s="4">
+      <c r="I515" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -15051,10 +15099,10 @@
       <c r="I517">
         <f>((C517-C516)^2+(D517- D516)^2)^.5</f>
       </c>
-      <c r="J517" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K517" s="4" t="s">
+      <c r="J517" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K517" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L517" t="n">
@@ -15098,28 +15146,28 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="s" s="4">
+      <c r="A519" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B519" t="s" s="4">
+      <c r="B519" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C519" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D519" t="s" s="4">
+      <c r="C519" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D519" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E519" t="s" s="4">
+      <c r="E519" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F519" t="s" s="4">
+      <c r="F519" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G519" t="s" s="4">
+      <c r="G519" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H519" t="s" s="4">
+      <c r="H519" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -15144,28 +15192,28 @@
       </c>
     </row>
     <row r="521">
-      <c r="B521" t="s" s="4">
+      <c r="B521" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C521" t="s" s="4">
+      <c r="C521" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D521" t="s" s="4">
+      <c r="D521" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E521" t="s" s="4">
+      <c r="E521" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F521" t="s" s="4">
+      <c r="F521" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G521" t="s" s="4">
+      <c r="G521" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H521" t="s" s="4">
+      <c r="H521" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I521" t="s" s="4">
+      <c r="I521" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -15224,10 +15272,10 @@
       <c r="I523">
         <f>((C523-C522)^2+(D523- D522)^2)^.5</f>
       </c>
-      <c r="J523" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K523" s="4" t="s">
+      <c r="J523" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K523" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L523" t="n">
@@ -15271,28 +15319,28 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="s" s="4">
+      <c r="A525" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B525" t="s" s="4">
+      <c r="B525" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C525" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D525" t="s" s="4">
+      <c r="C525" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D525" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E525" t="s" s="4">
+      <c r="E525" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F525" t="s" s="4">
+      <c r="F525" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G525" t="s" s="4">
+      <c r="G525" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H525" t="s" s="4">
+      <c r="H525" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -15317,28 +15365,28 @@
       </c>
     </row>
     <row r="527">
-      <c r="B527" t="s" s="4">
+      <c r="B527" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C527" t="s" s="4">
+      <c r="C527" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D527" t="s" s="4">
+      <c r="D527" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E527" t="s" s="4">
+      <c r="E527" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F527" t="s" s="4">
+      <c r="F527" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G527" t="s" s="4">
+      <c r="G527" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H527" t="s" s="4">
+      <c r="H527" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I527" t="s" s="4">
+      <c r="I527" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -15397,10 +15445,10 @@
       <c r="I529">
         <f>((C529-C528)^2+(D529- D528)^2)^.5</f>
       </c>
-      <c r="J529" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K529" s="4" t="s">
+      <c r="J529" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K529" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L529" t="n">
@@ -15444,28 +15492,28 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="s" s="4">
+      <c r="A531" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B531" t="s" s="4">
+      <c r="B531" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C531" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D531" t="s" s="4">
+      <c r="C531" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D531" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E531" t="s" s="4">
+      <c r="E531" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F531" t="s" s="4">
+      <c r="F531" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G531" t="s" s="4">
+      <c r="G531" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H531" t="s" s="4">
+      <c r="H531" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -15490,28 +15538,28 @@
       </c>
     </row>
     <row r="533">
-      <c r="B533" t="s" s="4">
+      <c r="B533" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C533" t="s" s="4">
+      <c r="C533" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D533" t="s" s="4">
+      <c r="D533" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E533" t="s" s="4">
+      <c r="E533" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F533" t="s" s="4">
+      <c r="F533" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G533" t="s" s="4">
+      <c r="G533" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H533" t="s" s="4">
+      <c r="H533" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I533" t="s" s="4">
+      <c r="I533" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -15570,10 +15618,10 @@
       <c r="I535">
         <f>((C535-C534)^2+(D535- D534)^2)^.5</f>
       </c>
-      <c r="J535" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K535" s="4" t="s">
+      <c r="J535" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K535" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L535" t="n">
@@ -15617,28 +15665,28 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="s" s="4">
+      <c r="A537" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B537" t="s" s="4">
+      <c r="B537" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C537" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D537" t="s" s="4">
+      <c r="C537" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D537" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E537" t="s" s="4">
+      <c r="E537" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F537" t="s" s="4">
+      <c r="F537" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G537" t="s" s="4">
+      <c r="G537" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H537" t="s" s="4">
+      <c r="H537" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -15663,28 +15711,28 @@
       </c>
     </row>
     <row r="539">
-      <c r="B539" t="s" s="4">
+      <c r="B539" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C539" t="s" s="4">
+      <c r="C539" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D539" t="s" s="4">
+      <c r="D539" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E539" t="s" s="4">
+      <c r="E539" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F539" t="s" s="4">
+      <c r="F539" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G539" t="s" s="4">
+      <c r="G539" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H539" t="s" s="4">
+      <c r="H539" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I539" t="s" s="4">
+      <c r="I539" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -15743,10 +15791,10 @@
       <c r="I541">
         <f>((C541-C540)^2+(D541- D540)^2)^.5</f>
       </c>
-      <c r="J541" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K541" s="4" t="s">
+      <c r="J541" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K541" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L541" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19200" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24000" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -565,10 +583,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="J13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -612,28 +630,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="12">
+      <c r="A15" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="12">
+      <c r="C15" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -658,28 +676,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="12">
+      <c r="I17" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -738,10 +756,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -785,28 +803,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="12">
+      <c r="A21" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="12">
+      <c r="C21" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -831,28 +849,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="12">
+      <c r="I23" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +958,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -987,28 +1005,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="12">
+      <c r="A28" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="12">
+      <c r="C28" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1051,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="12">
+      <c r="I30" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1131,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1160,28 +1178,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="12">
+      <c r="C34" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1224,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1304,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="12" t="s">
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1333,28 +1351,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="12">
+      <c r="C40" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1397,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1477,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="12" t="s">
+      <c r="J44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1506,28 +1524,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="12">
+      <c r="A46" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="12">
+      <c r="C46" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1570,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="12">
+      <c r="I48" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1679,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="12" t="s">
+      <c r="J51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1708,28 +1726,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="12">
+      <c r="A53" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="12">
+      <c r="C53" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F53" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="12">
+      <c r="G53" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1772,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="12">
+      <c r="C55" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="12">
+      <c r="D55" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="12">
+      <c r="I55" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1852,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1881,28 +1899,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="12">
+      <c r="A59" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="12">
+      <c r="C59" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1945,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2025,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="12" t="s">
+      <c r="J63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2054,28 +2072,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="12">
+      <c r="A65" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="12">
+      <c r="C65" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2118,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="12">
+      <c r="C67" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="12">
+      <c r="D67" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="12">
+      <c r="I67" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2180,10 +2198,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="12" t="s">
+      <c r="J69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2227,28 +2245,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="A71" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="12">
+      <c r="C71" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2273,28 +2291,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2371,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="12" t="s">
+      <c r="J75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2400,28 +2418,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="12">
+      <c r="A77" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="12">
+      <c r="C77" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2464,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="12">
+      <c r="C79" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="12">
+      <c r="D79" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="12">
+      <c r="I79" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2526,10 +2544,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2573,28 +2591,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="12">
+      <c r="A83" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="12">
+      <c r="C83" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2619,28 +2637,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="12">
+      <c r="I85" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2699,10 +2717,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="J87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2746,28 +2764,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="12">
+      <c r="C89" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2792,28 +2810,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2872,10 +2890,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="12" t="s">
+      <c r="J93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2919,28 +2937,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="12">
+      <c r="A95" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="12">
+      <c r="C95" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2965,28 +2983,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="12">
+      <c r="I97" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3045,10 +3063,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="12" t="s">
+      <c r="J99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3092,28 +3110,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="12">
+      <c r="A101" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="12">
+      <c r="C101" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3138,28 +3156,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="12">
+      <c r="I103" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3218,10 +3236,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="12" t="s">
+      <c r="J105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3265,28 +3283,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="12">
+      <c r="A107" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="12">
+      <c r="C107" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3311,28 +3329,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="12">
+      <c r="I109" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3391,10 +3409,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="12" t="s">
+      <c r="J111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3438,28 +3456,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="12">
+      <c r="A113" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="12">
+      <c r="C113" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3484,28 +3502,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="12">
+      <c r="I115" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3564,10 +3582,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="12" t="s">
+      <c r="J117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3611,28 +3629,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="12">
+      <c r="C119" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3657,28 +3675,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3766,10 +3784,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3813,28 +3831,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3859,28 +3877,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3939,10 +3957,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3986,28 +4004,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4032,28 +4050,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4112,10 +4130,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="12" t="s">
+      <c r="J136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4159,28 +4177,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="12">
+      <c r="C138" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4205,28 +4223,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4285,10 +4303,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="12" t="s">
+      <c r="J142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4332,28 +4350,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="12">
+      <c r="A144" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="12">
+      <c r="C144" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4378,28 +4396,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="12">
+      <c r="C146" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="12">
+      <c r="D146" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="12">
+      <c r="I146" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4458,10 +4476,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="12" t="s">
+      <c r="J148" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4505,28 +4523,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="12">
+      <c r="A150" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="12">
+      <c r="C150" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4551,28 +4569,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="12">
+      <c r="I152" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4631,10 +4649,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="12" t="s">
+      <c r="J154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4678,28 +4696,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="12">
+      <c r="A156" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="12">
+      <c r="C156" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4724,28 +4742,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="12">
+      <c r="I158" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4804,10 +4822,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="12" t="s">
+      <c r="J160" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4851,28 +4869,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="12">
+      <c r="C162" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4897,28 +4915,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4977,10 +4995,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="12" t="s">
+      <c r="J166" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5024,28 +5042,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="12">
+      <c r="C168" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5070,28 +5088,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5150,10 +5168,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="12" t="s">
+      <c r="J172" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5197,28 +5215,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="12">
+      <c r="A174" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="12">
+      <c r="C174" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5243,28 +5261,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="12">
+      <c r="C176" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="12">
+      <c r="D176" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="12">
+      <c r="I176" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5352,10 +5370,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="12" t="s">
+      <c r="J179" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5399,28 +5417,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="12">
+      <c r="C181" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5445,28 +5463,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5554,10 +5572,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="12" t="s">
+      <c r="J186" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5601,28 +5619,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="12">
+      <c r="A188" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="12">
+      <c r="C188" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5647,28 +5665,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="12">
+      <c r="C190" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="12">
+      <c r="D190" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="12">
+      <c r="I190" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5727,10 +5745,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="12" t="s">
+      <c r="J192" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5774,28 +5792,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="12">
+      <c r="A194" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="12">
+      <c r="C194" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5820,28 +5838,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="12">
+      <c r="C196" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="12">
+      <c r="D196" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="12">
+      <c r="I196" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5900,10 +5918,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="12" t="s">
+      <c r="J198" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5947,28 +5965,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="12">
+      <c r="A200" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="12">
+      <c r="C200" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="12">
+      <c r="E200" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="12">
+      <c r="F200" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="12">
+      <c r="G200" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="12">
+      <c r="H200" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5993,28 +6011,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="12">
+      <c r="B202" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="12">
+      <c r="C202" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="12">
+      <c r="D202" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="12">
+      <c r="E202" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="12">
+      <c r="F202" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="12">
+      <c r="G202" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="12">
+      <c r="H202" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="12">
+      <c r="I202" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6102,10 +6120,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="12" t="s">
+      <c r="J205" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6149,28 +6167,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="12">
+      <c r="A207" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="12">
+      <c r="C207" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6195,28 +6213,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="12">
+      <c r="C209" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="12">
+      <c r="D209" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="12">
+      <c r="I209" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6275,10 +6293,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="12" t="s">
+      <c r="J211" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6322,28 +6340,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="12">
+      <c r="A213" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="12">
+      <c r="C213" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6368,28 +6386,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="12">
+      <c r="C215" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="12">
+      <c r="D215" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="12">
+      <c r="I215" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6448,10 +6466,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6495,28 +6513,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6541,28 +6559,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6621,10 +6639,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6668,28 +6686,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6714,28 +6732,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6823,10 +6841,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="12" t="s">
+      <c r="J230" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6870,28 +6888,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="12">
+      <c r="A232" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="12">
+      <c r="B232" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="12">
+      <c r="C232" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="12">
+      <c r="E232" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="12">
+      <c r="F232" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="12">
+      <c r="G232" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="12">
+      <c r="H232" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6916,28 +6934,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="12">
+      <c r="C234" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="12">
+      <c r="D234" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="12">
+      <c r="I234" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6996,10 +7014,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="12" t="s">
+      <c r="J236" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7043,28 +7061,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="12">
+      <c r="A238" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="12">
+      <c r="C238" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7089,28 +7107,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="12">
+      <c r="C240" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="12">
+      <c r="D240" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="12">
+      <c r="I240" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7169,10 +7187,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="12" t="s">
+      <c r="J242" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7216,28 +7234,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="12">
+      <c r="A244" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="12">
+      <c r="C244" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7262,28 +7280,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="12">
+      <c r="C246" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="12">
+      <c r="D246" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="12">
+      <c r="I246" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7342,10 +7360,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="12" t="s">
+      <c r="J248" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7389,28 +7407,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="12">
+      <c r="A250" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="12">
+      <c r="C250" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7435,28 +7453,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="12">
+      <c r="C252" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="12">
+      <c r="D252" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="12">
+      <c r="I252" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7515,10 +7533,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="12" t="s">
+      <c r="J254" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7562,28 +7580,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="12">
+      <c r="A256" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="12">
+      <c r="C256" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7608,28 +7626,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="12">
+      <c r="C258" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="12">
+      <c r="D258" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="12">
+      <c r="I258" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7688,10 +7706,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7735,28 +7753,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7781,28 +7799,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7890,10 +7908,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="12" t="s">
+      <c r="J267" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7937,28 +7955,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="12">
+      <c r="A269" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="12">
+      <c r="C269" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="12">
+      <c r="E269" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="12">
+      <c r="F269" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="12">
+      <c r="G269" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="12">
+      <c r="H269" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7983,28 +8001,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="12">
+      <c r="C271" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="12">
+      <c r="D271" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="12">
+      <c r="I271" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8092,10 +8110,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="12" t="s">
+      <c r="J274" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8139,28 +8157,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="12">
+      <c r="A276" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="12">
+      <c r="C276" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8185,28 +8203,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="12">
+      <c r="B278" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="12">
+      <c r="C278" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="12">
+      <c r="D278" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="12">
+      <c r="E278" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="12">
+      <c r="F278" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="12">
+      <c r="G278" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="12">
+      <c r="H278" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="12">
+      <c r="I278" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8265,10 +8283,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="12" t="s">
+      <c r="J280" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8312,28 +8330,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="12">
+      <c r="A282" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="12">
+      <c r="C282" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8358,28 +8376,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="12">
+      <c r="C284" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="12">
+      <c r="D284" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="12">
+      <c r="I284" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8438,10 +8456,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="12" t="s">
+      <c r="J286" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8485,28 +8503,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="12">
+      <c r="A288" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="12">
+      <c r="C288" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8531,28 +8549,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="12">
+      <c r="C290" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="12">
+      <c r="D290" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="12">
+      <c r="I290" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8611,10 +8629,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="12" t="s">
+      <c r="J292" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8658,28 +8676,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="12">
+      <c r="A294" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="12">
+      <c r="C294" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8704,28 +8722,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="12">
+      <c r="B296" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="12">
+      <c r="C296" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="12">
+      <c r="D296" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="12">
+      <c r="E296" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="12">
+      <c r="F296" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="12">
+      <c r="G296" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="12">
+      <c r="H296" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="12">
+      <c r="I296" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8784,10 +8802,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="12" t="s">
+      <c r="J298" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8831,28 +8849,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="12">
+      <c r="A300" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="12">
+      <c r="C300" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8877,28 +8895,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="12">
+      <c r="C302" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="12">
+      <c r="D302" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="12">
+      <c r="I302" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8957,10 +8975,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="12" t="s">
+      <c r="J304" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -9004,28 +9022,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="12">
+      <c r="A306" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="12">
+      <c r="C306" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9050,28 +9068,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="12">
+      <c r="C308" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="12">
+      <c r="D308" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="12">
+      <c r="E308" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="12">
+      <c r="F308" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="12">
+      <c r="G308" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="12">
+      <c r="H308" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="12">
+      <c r="I308" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9130,10 +9148,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="12" t="s">
+      <c r="J310" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9177,28 +9195,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="12">
+      <c r="A312" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="12">
+      <c r="B312" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="12">
+      <c r="C312" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="12">
+      <c r="E312" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="12">
+      <c r="F312" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="12">
+      <c r="G312" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="12">
+      <c r="H312" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9223,28 +9241,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="12">
+      <c r="B314" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="12">
+      <c r="C314" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="12">
+      <c r="D314" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="12">
+      <c r="E314" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="12">
+      <c r="F314" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="12">
+      <c r="G314" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="12">
+      <c r="H314" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="12">
+      <c r="I314" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9303,10 +9321,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="12" t="s">
+      <c r="J316" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9350,28 +9368,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="12">
+      <c r="A318" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="12">
+      <c r="C318" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="12">
+      <c r="E318" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="12">
+      <c r="F318" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="12">
+      <c r="G318" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="12">
+      <c r="H318" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9396,28 +9414,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="12">
+      <c r="B320" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="12">
+      <c r="C320" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="12">
+      <c r="D320" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="12">
+      <c r="E320" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="12">
+      <c r="F320" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="12">
+      <c r="G320" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="12">
+      <c r="H320" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="12">
+      <c r="I320" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9476,10 +9494,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="12" t="s">
+      <c r="J322" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9523,28 +9541,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="12">
+      <c r="A324" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="12">
+      <c r="B324" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="12">
+      <c r="C324" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="12">
+      <c r="E324" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="12">
+      <c r="F324" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="12">
+      <c r="G324" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="12">
+      <c r="H324" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9569,28 +9587,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="12">
+      <c r="B326" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="12">
+      <c r="C326" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="12">
+      <c r="D326" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="12">
+      <c r="E326" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="12">
+      <c r="F326" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="12">
+      <c r="G326" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="12">
+      <c r="H326" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="12">
+      <c r="I326" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9649,10 +9667,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="12" t="s">
+      <c r="J328" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9696,28 +9714,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="12">
+      <c r="A330" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="12">
+      <c r="B330" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="12">
+      <c r="C330" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="12">
+      <c r="E330" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="12">
+      <c r="F330" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="12">
+      <c r="G330" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="12">
+      <c r="H330" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9742,28 +9760,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="12">
+      <c r="B332" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="12">
+      <c r="C332" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="12">
+      <c r="D332" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="12">
+      <c r="E332" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="12">
+      <c r="F332" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="12">
+      <c r="G332" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="12">
+      <c r="H332" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="12">
+      <c r="I332" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9822,10 +9840,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="12" t="s">
+      <c r="J334" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9869,28 +9887,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="12">
+      <c r="A336" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="12">
+      <c r="B336" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="12">
+      <c r="C336" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="12">
+      <c r="E336" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="12">
+      <c r="F336" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="12">
+      <c r="G336" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="12">
+      <c r="H336" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9915,28 +9933,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="12">
+      <c r="B338" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="12">
+      <c r="C338" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="12">
+      <c r="D338" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="12">
+      <c r="E338" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="12">
+      <c r="F338" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="12">
+      <c r="G338" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="12">
+      <c r="H338" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="12">
+      <c r="I338" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9995,10 +10013,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="12" t="s">
+      <c r="J340" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -10042,28 +10060,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="12">
+      <c r="A342" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="12">
+      <c r="B342" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="12">
+      <c r="C342" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="12">
+      <c r="E342" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="12">
+      <c r="F342" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="12">
+      <c r="G342" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="12">
+      <c r="H342" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10088,28 +10106,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="12">
+      <c r="B344" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="12">
+      <c r="C344" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="12">
+      <c r="D344" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="12">
+      <c r="E344" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="12">
+      <c r="F344" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="12">
+      <c r="G344" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="12">
+      <c r="H344" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="12">
+      <c r="I344" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10168,10 +10186,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="12" t="s">
+      <c r="J346" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10215,28 +10233,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="12">
+      <c r="A348" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="12">
+      <c r="B348" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="12">
+      <c r="C348" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="12">
+      <c r="E348" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="12">
+      <c r="F348" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="12">
+      <c r="G348" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="12">
+      <c r="H348" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10261,28 +10279,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="12">
+      <c r="B350" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="12">
+      <c r="C350" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="12">
+      <c r="D350" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="12">
+      <c r="E350" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="12">
+      <c r="F350" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="12">
+      <c r="G350" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="12">
+      <c r="H350" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="12">
+      <c r="I350" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10341,10 +10359,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="12" t="s">
+      <c r="J352" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10388,28 +10406,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="12">
+      <c r="A354" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="12">
+      <c r="B354" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="12">
+      <c r="C354" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="12">
+      <c r="E354" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="12">
+      <c r="F354" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="12">
+      <c r="G354" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="12">
+      <c r="H354" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10434,28 +10452,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="12">
+      <c r="B356" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="12">
+      <c r="C356" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="12">
+      <c r="D356" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="12">
+      <c r="E356" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="12">
+      <c r="F356" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="12">
+      <c r="G356" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="12">
+      <c r="H356" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="12">
+      <c r="I356" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10514,10 +10532,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="12" t="s">
+      <c r="J358" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10561,28 +10579,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="12">
+      <c r="A360" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="12">
+      <c r="B360" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="12">
+      <c r="C360" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="12">
+      <c r="E360" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="12">
+      <c r="F360" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="12">
+      <c r="G360" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="12">
+      <c r="H360" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10607,28 +10625,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="12">
+      <c r="B362" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="12">
+      <c r="C362" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="12">
+      <c r="D362" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="12">
+      <c r="E362" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="12">
+      <c r="F362" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="12">
+      <c r="G362" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="12">
+      <c r="H362" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="12">
+      <c r="I362" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10687,10 +10705,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="12" t="s">
+      <c r="J364" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10734,28 +10752,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="12">
+      <c r="A366" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="12">
+      <c r="B366" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="12">
+      <c r="C366" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="12">
+      <c r="E366" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="12">
+      <c r="F366" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="12">
+      <c r="G366" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="12">
+      <c r="H366" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10780,28 +10798,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="12">
+      <c r="B368" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="12">
+      <c r="C368" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="12">
+      <c r="D368" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="12">
+      <c r="E368" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="12">
+      <c r="F368" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="12">
+      <c r="G368" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="12">
+      <c r="H368" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="12">
+      <c r="I368" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10860,10 +10878,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="12" t="s">
+      <c r="J370" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10907,28 +10925,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="12">
+      <c r="A372" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="12">
+      <c r="B372" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="12">
+      <c r="C372" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="12">
+      <c r="E372" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="12">
+      <c r="F372" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="12">
+      <c r="G372" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="12">
+      <c r="H372" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10953,28 +10971,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="12">
+      <c r="B374" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="12">
+      <c r="C374" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="12">
+      <c r="D374" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="12">
+      <c r="E374" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="12">
+      <c r="F374" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="12">
+      <c r="G374" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="12">
+      <c r="H374" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="12">
+      <c r="I374" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11033,10 +11051,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="12" t="s">
+      <c r="J376" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11080,28 +11098,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="12">
+      <c r="A378" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="12">
+      <c r="B378" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="12">
+      <c r="C378" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="12">
+      <c r="E378" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="12">
+      <c r="F378" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="12">
+      <c r="G378" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="12">
+      <c r="H378" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11126,28 +11144,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="12">
+      <c r="B380" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="12">
+      <c r="C380" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="12">
+      <c r="D380" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="12">
+      <c r="E380" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="12">
+      <c r="F380" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="12">
+      <c r="G380" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="12">
+      <c r="H380" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="12">
+      <c r="I380" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11206,10 +11224,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="12" t="s">
+      <c r="J382" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11253,28 +11271,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="12">
+      <c r="A384" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="12">
+      <c r="B384" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="12">
+      <c r="C384" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="12">
+      <c r="E384" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="12">
+      <c r="F384" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="12">
+      <c r="G384" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="12">
+      <c r="H384" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11299,28 +11317,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="12">
+      <c r="B386" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="12">
+      <c r="C386" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="12">
+      <c r="D386" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="12">
+      <c r="E386" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="12">
+      <c r="F386" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="12">
+      <c r="G386" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="12">
+      <c r="H386" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="12">
+      <c r="I386" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11379,10 +11397,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="12" t="s">
+      <c r="J388" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11426,28 +11444,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="12">
+      <c r="A390" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="12">
+      <c r="B390" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="12">
+      <c r="C390" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="12">
+      <c r="E390" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="12">
+      <c r="F390" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="12">
+      <c r="G390" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="12">
+      <c r="H390" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11472,28 +11490,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="12">
+      <c r="B392" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="12">
+      <c r="C392" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="12">
+      <c r="D392" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="12">
+      <c r="E392" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="12">
+      <c r="F392" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="12">
+      <c r="G392" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="12">
+      <c r="H392" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="12">
+      <c r="I392" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11552,10 +11570,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="12" t="s">
+      <c r="J394" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11599,28 +11617,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="12">
+      <c r="A396" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="12">
+      <c r="C396" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11645,28 +11663,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="12">
+      <c r="B398" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="12">
+      <c r="C398" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="12">
+      <c r="D398" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="12">
+      <c r="E398" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="12">
+      <c r="F398" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="12">
+      <c r="G398" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="12">
+      <c r="H398" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="12">
+      <c r="I398" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11725,10 +11743,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="12" t="s">
+      <c r="J400" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11772,28 +11790,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="12">
+      <c r="A402" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="12">
+      <c r="B402" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="12">
+      <c r="C402" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="12">
+      <c r="E402" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="12">
+      <c r="F402" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="12">
+      <c r="G402" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="12">
+      <c r="H402" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11818,28 +11836,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="12">
+      <c r="B404" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="12">
+      <c r="C404" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="12">
+      <c r="D404" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="12">
+      <c r="E404" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="12">
+      <c r="F404" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="12">
+      <c r="G404" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="12">
+      <c r="H404" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="12">
+      <c r="I404" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11898,10 +11916,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="12" t="s">
+      <c r="J406" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11945,28 +11963,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="12">
+      <c r="A408" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="12">
+      <c r="B408" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="12">
+      <c r="C408" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="12">
+      <c r="E408" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="12">
+      <c r="F408" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="12">
+      <c r="G408" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="12">
+      <c r="H408" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11991,28 +12009,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="12">
+      <c r="B410" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="12">
+      <c r="C410" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="12">
+      <c r="D410" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="12">
+      <c r="E410" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="12">
+      <c r="F410" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="12">
+      <c r="G410" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="12">
+      <c r="H410" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="12">
+      <c r="I410" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12071,10 +12089,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="12" t="s">
+      <c r="J412" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12118,28 +12136,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="12">
+      <c r="A414" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="12">
+      <c r="B414" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="12">
+      <c r="C414" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="12">
+      <c r="E414" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="12">
+      <c r="F414" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="12">
+      <c r="G414" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="12">
+      <c r="H414" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12164,28 +12182,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="12">
+      <c r="B416" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="12">
+      <c r="C416" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="12">
+      <c r="D416" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="12">
+      <c r="E416" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="12">
+      <c r="F416" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="12">
+      <c r="G416" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="12">
+      <c r="H416" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="12">
+      <c r="I416" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12273,10 +12291,10 @@
       <c r="I419">
         <f>((C419-C418)^2+(D419- D418)^2)^.5</f>
       </c>
-      <c r="J419" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K419" s="12" t="s">
+      <c r="J419" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K419" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L419" t="n">
@@ -12320,28 +12338,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="s" s="12">
+      <c r="A421" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B421" t="s" s="12">
+      <c r="B421" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C421" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D421" t="s" s="12">
+      <c r="C421" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E421" t="s" s="12">
+      <c r="E421" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F421" t="s" s="12">
+      <c r="F421" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G421" t="s" s="12">
+      <c r="G421" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H421" t="s" s="12">
+      <c r="H421" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12366,28 +12384,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="B423" t="s" s="12">
+      <c r="B423" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C423" t="s" s="12">
+      <c r="C423" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D423" t="s" s="12">
+      <c r="D423" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E423" t="s" s="12">
+      <c r="E423" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F423" t="s" s="12">
+      <c r="F423" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G423" t="s" s="12">
+      <c r="G423" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H423" t="s" s="12">
+      <c r="H423" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I423" t="s" s="12">
+      <c r="I423" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12446,10 +12464,10 @@
       <c r="I425">
         <f>((C425-C424)^2+(D425- D424)^2)^.5</f>
       </c>
-      <c r="J425" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K425" s="12" t="s">
+      <c r="J425" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K425" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L425" t="n">
@@ -12493,28 +12511,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s" s="12">
+      <c r="A427" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B427" t="s" s="12">
+      <c r="B427" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C427" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D427" t="s" s="12">
+      <c r="C427" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E427" t="s" s="12">
+      <c r="E427" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F427" t="s" s="12">
+      <c r="F427" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G427" t="s" s="12">
+      <c r="G427" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H427" t="s" s="12">
+      <c r="H427" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12539,28 +12557,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="B429" t="s" s="12">
+      <c r="B429" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C429" t="s" s="12">
+      <c r="C429" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D429" t="s" s="12">
+      <c r="D429" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E429" t="s" s="12">
+      <c r="E429" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F429" t="s" s="12">
+      <c r="F429" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G429" t="s" s="12">
+      <c r="G429" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H429" t="s" s="12">
+      <c r="H429" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I429" t="s" s="12">
+      <c r="I429" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12619,10 +12637,10 @@
       <c r="I431">
         <f>((C431-C430)^2+(D431- D430)^2)^.5</f>
       </c>
-      <c r="J431" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K431" s="12" t="s">
+      <c r="J431" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K431" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L431" t="n">
@@ -12666,28 +12684,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="s" s="12">
+      <c r="A433" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B433" t="s" s="12">
+      <c r="B433" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C433" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D433" t="s" s="12">
+      <c r="C433" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D433" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E433" t="s" s="12">
+      <c r="E433" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F433" t="s" s="12">
+      <c r="F433" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G433" t="s" s="12">
+      <c r="G433" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H433" t="s" s="12">
+      <c r="H433" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12712,28 +12730,28 @@
       </c>
     </row>
     <row r="435">
-      <c r="B435" t="s" s="12">
+      <c r="B435" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C435" t="s" s="12">
+      <c r="C435" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D435" t="s" s="12">
+      <c r="D435" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E435" t="s" s="12">
+      <c r="E435" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F435" t="s" s="12">
+      <c r="F435" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G435" t="s" s="12">
+      <c r="G435" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H435" t="s" s="12">
+      <c r="H435" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I435" t="s" s="12">
+      <c r="I435" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12792,10 +12810,10 @@
       <c r="I437">
         <f>((C437-C436)^2+(D437- D436)^2)^.5</f>
       </c>
-      <c r="J437" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K437" s="12" t="s">
+      <c r="J437" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K437" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L437" t="n">
@@ -12839,28 +12857,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="12">
+      <c r="A439" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B439" t="s" s="12">
+      <c r="B439" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C439" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D439" t="s" s="12">
+      <c r="C439" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E439" t="s" s="12">
+      <c r="E439" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F439" t="s" s="12">
+      <c r="F439" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G439" t="s" s="12">
+      <c r="G439" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H439" t="s" s="12">
+      <c r="H439" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12885,28 +12903,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="B441" t="s" s="12">
+      <c r="B441" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C441" t="s" s="12">
+      <c r="C441" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D441" t="s" s="12">
+      <c r="D441" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E441" t="s" s="12">
+      <c r="E441" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F441" t="s" s="12">
+      <c r="F441" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G441" t="s" s="12">
+      <c r="G441" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H441" t="s" s="12">
+      <c r="H441" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I441" t="s" s="12">
+      <c r="I441" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12965,10 +12983,10 @@
       <c r="I443">
         <f>((C443-C442)^2+(D443- D442)^2)^.5</f>
       </c>
-      <c r="J443" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K443" s="12" t="s">
+      <c r="J443" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K443" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L443" t="n">
@@ -13012,28 +13030,28 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s" s="12">
+      <c r="A445" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B445" t="s" s="12">
+      <c r="B445" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C445" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D445" t="s" s="12">
+      <c r="C445" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D445" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E445" t="s" s="12">
+      <c r="E445" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F445" t="s" s="12">
+      <c r="F445" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G445" t="s" s="12">
+      <c r="G445" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H445" t="s" s="12">
+      <c r="H445" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13058,28 +13076,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="B447" t="s" s="12">
+      <c r="B447" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C447" t="s" s="12">
+      <c r="C447" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D447" t="s" s="12">
+      <c r="D447" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E447" t="s" s="12">
+      <c r="E447" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F447" t="s" s="12">
+      <c r="F447" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G447" t="s" s="12">
+      <c r="G447" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H447" t="s" s="12">
+      <c r="H447" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I447" t="s" s="12">
+      <c r="I447" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13138,10 +13156,10 @@
       <c r="I449">
         <f>((C449-C448)^2+(D449- D448)^2)^.5</f>
       </c>
-      <c r="J449" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K449" s="12" t="s">
+      <c r="J449" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K449" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L449" t="n">
@@ -13185,28 +13203,28 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="s" s="12">
+      <c r="A451" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B451" t="s" s="12">
+      <c r="B451" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C451" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D451" t="s" s="12">
+      <c r="C451" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D451" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E451" t="s" s="12">
+      <c r="E451" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F451" t="s" s="12">
+      <c r="F451" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G451" t="s" s="12">
+      <c r="G451" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H451" t="s" s="12">
+      <c r="H451" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13231,28 +13249,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="B453" t="s" s="12">
+      <c r="B453" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C453" t="s" s="12">
+      <c r="C453" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D453" t="s" s="12">
+      <c r="D453" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E453" t="s" s="12">
+      <c r="E453" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F453" t="s" s="12">
+      <c r="F453" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G453" t="s" s="12">
+      <c r="G453" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H453" t="s" s="12">
+      <c r="H453" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I453" t="s" s="12">
+      <c r="I453" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13311,10 +13329,10 @@
       <c r="I455">
         <f>((C455-C454)^2+(D455- D454)^2)^.5</f>
       </c>
-      <c r="J455" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K455" s="12" t="s">
+      <c r="J455" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K455" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L455" t="n">
@@ -13358,28 +13376,28 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="s" s="12">
+      <c r="A457" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B457" t="s" s="12">
+      <c r="B457" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C457" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D457" t="s" s="12">
+      <c r="C457" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D457" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E457" t="s" s="12">
+      <c r="E457" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F457" t="s" s="12">
+      <c r="F457" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G457" t="s" s="12">
+      <c r="G457" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H457" t="s" s="12">
+      <c r="H457" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13404,28 +13422,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="B459" t="s" s="12">
+      <c r="B459" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C459" t="s" s="12">
+      <c r="C459" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D459" t="s" s="12">
+      <c r="D459" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E459" t="s" s="12">
+      <c r="E459" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F459" t="s" s="12">
+      <c r="F459" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G459" t="s" s="12">
+      <c r="G459" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H459" t="s" s="12">
+      <c r="H459" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I459" t="s" s="12">
+      <c r="I459" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13484,10 +13502,10 @@
       <c r="I461">
         <f>((C461-C460)^2+(D461- D460)^2)^.5</f>
       </c>
-      <c r="J461" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K461" s="12" t="s">
+      <c r="J461" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K461" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L461" t="n">
@@ -13531,28 +13549,28 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="s" s="12">
+      <c r="A463" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B463" t="s" s="12">
+      <c r="B463" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C463" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D463" t="s" s="12">
+      <c r="C463" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D463" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E463" t="s" s="12">
+      <c r="E463" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F463" t="s" s="12">
+      <c r="F463" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G463" t="s" s="12">
+      <c r="G463" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H463" t="s" s="12">
+      <c r="H463" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13577,28 +13595,28 @@
       </c>
     </row>
     <row r="465">
-      <c r="B465" t="s" s="12">
+      <c r="B465" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C465" t="s" s="12">
+      <c r="C465" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D465" t="s" s="12">
+      <c r="D465" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E465" t="s" s="12">
+      <c r="E465" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F465" t="s" s="12">
+      <c r="F465" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G465" t="s" s="12">
+      <c r="G465" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H465" t="s" s="12">
+      <c r="H465" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I465" t="s" s="12">
+      <c r="I465" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13686,10 +13704,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="12" t="s">
+      <c r="J468" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13733,28 +13751,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="12">
+      <c r="A470" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="12">
+      <c r="B470" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="12">
+      <c r="C470" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="12">
+      <c r="E470" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="12">
+      <c r="F470" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="12">
+      <c r="G470" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="12">
+      <c r="H470" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13779,28 +13797,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="12">
+      <c r="B472" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="12">
+      <c r="C472" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="12">
+      <c r="D472" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="12">
+      <c r="E472" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="12">
+      <c r="F472" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="12">
+      <c r="G472" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="12">
+      <c r="H472" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="12">
+      <c r="I472" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13859,10 +13877,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="12" t="s">
+      <c r="J474" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13906,28 +13924,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="12">
+      <c r="A476" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="12">
+      <c r="B476" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="12">
+      <c r="C476" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="12">
+      <c r="E476" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="12">
+      <c r="F476" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="12">
+      <c r="G476" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="12">
+      <c r="H476" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13952,28 +13970,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="12">
+      <c r="B478" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="12">
+      <c r="C478" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="12">
+      <c r="D478" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="12">
+      <c r="E478" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="12">
+      <c r="F478" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="12">
+      <c r="G478" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="12">
+      <c r="H478" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="12">
+      <c r="I478" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14032,10 +14050,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="12" t="s">
+      <c r="J480" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14079,28 +14097,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="12">
+      <c r="A482" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="12">
+      <c r="B482" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="12">
+      <c r="C482" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="12">
+      <c r="E482" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="12">
+      <c r="F482" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="12">
+      <c r="G482" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="12">
+      <c r="H482" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14125,28 +14143,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="12">
+      <c r="B484" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="12">
+      <c r="C484" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="12">
+      <c r="D484" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="12">
+      <c r="E484" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="12">
+      <c r="F484" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="12">
+      <c r="G484" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="12">
+      <c r="H484" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="12">
+      <c r="I484" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14205,10 +14223,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="12" t="s">
+      <c r="J486" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">
@@ -14252,28 +14270,28 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="s" s="12">
+      <c r="A488" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B488" t="s" s="12">
+      <c r="B488" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C488" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D488" t="s" s="12">
+      <c r="C488" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D488" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E488" t="s" s="12">
+      <c r="E488" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F488" t="s" s="12">
+      <c r="F488" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G488" t="s" s="12">
+      <c r="G488" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H488" t="s" s="12">
+      <c r="H488" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14298,28 +14316,28 @@
       </c>
     </row>
     <row r="490">
-      <c r="B490" t="s" s="12">
+      <c r="B490" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C490" t="s" s="12">
+      <c r="C490" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D490" t="s" s="12">
+      <c r="D490" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E490" t="s" s="12">
+      <c r="E490" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F490" t="s" s="12">
+      <c r="F490" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G490" t="s" s="12">
+      <c r="G490" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H490" t="s" s="12">
+      <c r="H490" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I490" t="s" s="12">
+      <c r="I490" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14378,10 +14396,10 @@
       <c r="I492">
         <f>((C492-C491)^2+(D492- D491)^2)^.5</f>
       </c>
-      <c r="J492" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K492" s="12" t="s">
+      <c r="J492" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K492" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L492" t="n">
@@ -14425,28 +14443,28 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="s" s="12">
+      <c r="A494" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B494" t="s" s="12">
+      <c r="B494" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C494" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D494" t="s" s="12">
+      <c r="C494" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D494" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E494" t="s" s="12">
+      <c r="E494" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F494" t="s" s="12">
+      <c r="F494" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G494" t="s" s="12">
+      <c r="G494" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H494" t="s" s="12">
+      <c r="H494" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14471,28 +14489,28 @@
       </c>
     </row>
     <row r="496">
-      <c r="B496" t="s" s="12">
+      <c r="B496" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C496" t="s" s="12">
+      <c r="C496" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D496" t="s" s="12">
+      <c r="D496" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E496" t="s" s="12">
+      <c r="E496" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F496" t="s" s="12">
+      <c r="F496" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G496" t="s" s="12">
+      <c r="G496" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H496" t="s" s="12">
+      <c r="H496" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I496" t="s" s="12">
+      <c r="I496" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14551,10 +14569,10 @@
       <c r="I498">
         <f>((C498-C497)^2+(D498- D497)^2)^.5</f>
       </c>
-      <c r="J498" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K498" s="12" t="s">
+      <c r="J498" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K498" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L498" t="n">
@@ -14598,28 +14616,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="s" s="12">
+      <c r="A500" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B500" t="s" s="12">
+      <c r="B500" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C500" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D500" t="s" s="12">
+      <c r="C500" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D500" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E500" t="s" s="12">
+      <c r="E500" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F500" t="s" s="12">
+      <c r="F500" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G500" t="s" s="12">
+      <c r="G500" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H500" t="s" s="12">
+      <c r="H500" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14644,28 +14662,28 @@
       </c>
     </row>
     <row r="502">
-      <c r="B502" t="s" s="12">
+      <c r="B502" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C502" t="s" s="12">
+      <c r="C502" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D502" t="s" s="12">
+      <c r="D502" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E502" t="s" s="12">
+      <c r="E502" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F502" t="s" s="12">
+      <c r="F502" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G502" t="s" s="12">
+      <c r="G502" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H502" t="s" s="12">
+      <c r="H502" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I502" t="s" s="12">
+      <c r="I502" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14753,10 +14771,10 @@
       <c r="I505">
         <f>((C505-C504)^2+(D505- D504)^2)^.5</f>
       </c>
-      <c r="J505" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K505" s="12" t="s">
+      <c r="J505" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K505" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L505" t="n">
@@ -14800,28 +14818,28 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="s" s="12">
+      <c r="A507" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B507" t="s" s="12">
+      <c r="B507" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C507" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D507" t="s" s="12">
+      <c r="C507" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D507" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E507" t="s" s="12">
+      <c r="E507" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F507" t="s" s="12">
+      <c r="F507" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G507" t="s" s="12">
+      <c r="G507" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H507" t="s" s="12">
+      <c r="H507" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14846,28 +14864,28 @@
       </c>
     </row>
     <row r="509">
-      <c r="B509" t="s" s="12">
+      <c r="B509" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C509" t="s" s="12">
+      <c r="C509" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D509" t="s" s="12">
+      <c r="D509" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E509" t="s" s="12">
+      <c r="E509" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F509" t="s" s="12">
+      <c r="F509" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G509" t="s" s="12">
+      <c r="G509" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H509" t="s" s="12">
+      <c r="H509" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I509" t="s" s="12">
+      <c r="I509" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14926,10 +14944,10 @@
       <c r="I511">
         <f>((C511-C510)^2+(D511- D510)^2)^.5</f>
       </c>
-      <c r="J511" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K511" s="12" t="s">
+      <c r="J511" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K511" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L511" t="n">
@@ -14973,28 +14991,28 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="s" s="12">
+      <c r="A513" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B513" t="s" s="12">
+      <c r="B513" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C513" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D513" t="s" s="12">
+      <c r="C513" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D513" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E513" t="s" s="12">
+      <c r="E513" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F513" t="s" s="12">
+      <c r="F513" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G513" t="s" s="12">
+      <c r="G513" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H513" t="s" s="12">
+      <c r="H513" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -15019,28 +15037,28 @@
       </c>
     </row>
     <row r="515">
-      <c r="B515" t="s" s="12">
+      <c r="B515" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C515" t="s" s="12">
+      <c r="C515" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D515" t="s" s="12">
+      <c r="D515" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E515" t="s" s="12">
+      <c r="E515" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F515" t="s" s="12">
+      <c r="F515" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G515" t="s" s="12">
+      <c r="G515" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H515" t="s" s="12">
+      <c r="H515" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I515" t="s" s="12">
+      <c r="I515" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15099,10 +15117,10 @@
       <c r="I517">
         <f>((C517-C516)^2+(D517- D516)^2)^.5</f>
       </c>
-      <c r="J517" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K517" s="12" t="s">
+      <c r="J517" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K517" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L517" t="n">
@@ -15146,28 +15164,28 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="s" s="12">
+      <c r="A519" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B519" t="s" s="12">
+      <c r="B519" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C519" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D519" t="s" s="12">
+      <c r="C519" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D519" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E519" t="s" s="12">
+      <c r="E519" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F519" t="s" s="12">
+      <c r="F519" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G519" t="s" s="12">
+      <c r="G519" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H519" t="s" s="12">
+      <c r="H519" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -15192,28 +15210,28 @@
       </c>
     </row>
     <row r="521">
-      <c r="B521" t="s" s="12">
+      <c r="B521" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C521" t="s" s="12">
+      <c r="C521" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D521" t="s" s="12">
+      <c r="D521" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E521" t="s" s="12">
+      <c r="E521" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F521" t="s" s="12">
+      <c r="F521" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G521" t="s" s="12">
+      <c r="G521" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H521" t="s" s="12">
+      <c r="H521" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I521" t="s" s="12">
+      <c r="I521" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15272,10 +15290,10 @@
       <c r="I523">
         <f>((C523-C522)^2+(D523- D522)^2)^.5</f>
       </c>
-      <c r="J523" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K523" s="12" t="s">
+      <c r="J523" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K523" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L523" t="n">
@@ -15319,28 +15337,28 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="s" s="12">
+      <c r="A525" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B525" t="s" s="12">
+      <c r="B525" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C525" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D525" t="s" s="12">
+      <c r="C525" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D525" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E525" t="s" s="12">
+      <c r="E525" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F525" t="s" s="12">
+      <c r="F525" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G525" t="s" s="12">
+      <c r="G525" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H525" t="s" s="12">
+      <c r="H525" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -15365,28 +15383,28 @@
       </c>
     </row>
     <row r="527">
-      <c r="B527" t="s" s="12">
+      <c r="B527" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C527" t="s" s="12">
+      <c r="C527" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D527" t="s" s="12">
+      <c r="D527" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E527" t="s" s="12">
+      <c r="E527" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F527" t="s" s="12">
+      <c r="F527" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G527" t="s" s="12">
+      <c r="G527" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H527" t="s" s="12">
+      <c r="H527" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I527" t="s" s="12">
+      <c r="I527" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15445,10 +15463,10 @@
       <c r="I529">
         <f>((C529-C528)^2+(D529- D528)^2)^.5</f>
       </c>
-      <c r="J529" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K529" s="12" t="s">
+      <c r="J529" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K529" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L529" t="n">
@@ -15492,28 +15510,28 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="s" s="12">
+      <c r="A531" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B531" t="s" s="12">
+      <c r="B531" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C531" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D531" t="s" s="12">
+      <c r="C531" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D531" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E531" t="s" s="12">
+      <c r="E531" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F531" t="s" s="12">
+      <c r="F531" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G531" t="s" s="12">
+      <c r="G531" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H531" t="s" s="12">
+      <c r="H531" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -15538,28 +15556,28 @@
       </c>
     </row>
     <row r="533">
-      <c r="B533" t="s" s="12">
+      <c r="B533" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C533" t="s" s="12">
+      <c r="C533" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D533" t="s" s="12">
+      <c r="D533" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E533" t="s" s="12">
+      <c r="E533" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F533" t="s" s="12">
+      <c r="F533" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G533" t="s" s="12">
+      <c r="G533" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H533" t="s" s="12">
+      <c r="H533" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I533" t="s" s="12">
+      <c r="I533" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15618,10 +15636,10 @@
       <c r="I535">
         <f>((C535-C534)^2+(D535- D534)^2)^.5</f>
       </c>
-      <c r="J535" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K535" s="12" t="s">
+      <c r="J535" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K535" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L535" t="n">
@@ -15665,28 +15683,28 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="s" s="12">
+      <c r="A537" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B537" t="s" s="12">
+      <c r="B537" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C537" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D537" t="s" s="12">
+      <c r="C537" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D537" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E537" t="s" s="12">
+      <c r="E537" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F537" t="s" s="12">
+      <c r="F537" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G537" t="s" s="12">
+      <c r="G537" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H537" t="s" s="12">
+      <c r="H537" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -15711,28 +15729,28 @@
       </c>
     </row>
     <row r="539">
-      <c r="B539" t="s" s="12">
+      <c r="B539" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C539" t="s" s="12">
+      <c r="C539" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D539" t="s" s="12">
+      <c r="D539" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E539" t="s" s="12">
+      <c r="E539" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F539" t="s" s="12">
+      <c r="F539" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G539" t="s" s="12">
+      <c r="G539" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H539" t="s" s="12">
+      <c r="H539" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I539" t="s" s="12">
+      <c r="I539" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15791,10 +15809,10 @@
       <c r="I541">
         <f>((C541-C540)^2+(D541- D540)^2)^.5</f>
       </c>
-      <c r="J541" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K541" s="12" t="s">
+      <c r="J541" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K541" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L541" t="n">
